--- a/Proyecto Interno/working-papers/working-paper-1225/m5/output_ecm/m5_ecm_outputs.xlsx
+++ b/Proyecto Interno/working-papers/working-paper-1225/m5/output_ecm/m5_ecm_outputs.xlsx
@@ -353,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,7 +420,7 @@
         <v>0.4791277947661207</v>
       </c>
       <c r="F2">
-        <v>0.4791277947661207</v>
+        <v>0.1</v>
       </c>
       <c r="G2">
         <v>-0.1189853613412287</v>
@@ -432,26 +432,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ahuyama</t>
+          <t>Aguacate papelillo</t>
         </is>
       </c>
       <c r="B3">
         <v>44</v>
       </c>
       <c r="C3">
-        <v>-2.668119123076417</v>
+        <v>-3.883020234323077</v>
       </c>
       <c r="D3">
-        <v>0.09006454713803308</v>
+        <v>0.01</v>
       </c>
       <c r="E3">
-        <v>0.6603172893603901</v>
+        <v>0.4791277947661207</v>
       </c>
       <c r="F3">
-        <v>0.6603172893603901</v>
+        <v>0.1</v>
       </c>
       <c r="G3">
-        <v>-1.813483308946399</v>
+        <v>-0.1189853613412287</v>
       </c>
       <c r="H3">
         <v>0.1</v>
@@ -460,26 +460,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Arracacha amarilla</t>
+          <t>Ahuyama</t>
         </is>
       </c>
       <c r="B4">
         <v>44</v>
       </c>
       <c r="C4">
-        <v>-1.923574804012244</v>
+        <v>-2.668119123076417</v>
       </c>
       <c r="D4">
-        <v>0.1</v>
+        <v>0.09006454713803308</v>
       </c>
       <c r="E4">
-        <v>0.6721479851533916</v>
+        <v>0.6603172893603901</v>
       </c>
       <c r="F4">
-        <v>0.6721479851533916</v>
+        <v>0.1</v>
       </c>
       <c r="G4">
-        <v>-1.263458569155752</v>
+        <v>-1.813483308946399</v>
       </c>
       <c r="H4">
         <v>0.1</v>
@@ -488,26 +488,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Arroz de primera</t>
+          <t>Arracacha amarilla</t>
         </is>
       </c>
       <c r="B5">
         <v>44</v>
       </c>
       <c r="C5">
-        <v>-3.34567035264658</v>
+        <v>-1.923574804012244</v>
       </c>
       <c r="D5">
-        <v>0.02475174589327518</v>
+        <v>0.1</v>
       </c>
       <c r="E5">
-        <v>-0.5189352127393903</v>
+        <v>0.6721479851533916</v>
       </c>
       <c r="F5">
-        <v>-0.5189352127393903</v>
+        <v>0.1</v>
       </c>
       <c r="G5">
-        <v>-0.8504955034414585</v>
+        <v>-1.263458569155752</v>
       </c>
       <c r="H5">
         <v>0.1</v>
@@ -516,26 +516,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Arveja verde en vaina pastusa</t>
+          <t>Arroz de primera</t>
         </is>
       </c>
       <c r="B6">
         <v>44</v>
       </c>
       <c r="C6">
-        <v>-3.01897329215498</v>
+        <v>-3.34567035264658</v>
       </c>
       <c r="D6">
-        <v>0.04458830338500159</v>
+        <v>0.02475174589327518</v>
       </c>
       <c r="E6">
-        <v>0.06730950129544232</v>
+        <v>-0.5189352127393903</v>
       </c>
       <c r="F6">
-        <v>0.06730950129544232</v>
+        <v>0.1</v>
       </c>
       <c r="G6">
-        <v>-0.5103504538835113</v>
+        <v>-0.8504955034414585</v>
       </c>
       <c r="H6">
         <v>0.1</v>
@@ -544,26 +544,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Arveja verde seca importada</t>
+          <t>Arveja verde en vaina pastusa</t>
         </is>
       </c>
       <c r="B7">
         <v>44</v>
       </c>
       <c r="C7">
-        <v>-3.422374157877457</v>
+        <v>-3.01897329215498</v>
       </c>
       <c r="D7">
-        <v>0.02009440542009516</v>
+        <v>0.04458830338500159</v>
       </c>
       <c r="E7">
-        <v>0.3739637872310629</v>
+        <v>0.06730950129544232</v>
       </c>
       <c r="F7">
-        <v>0.3739637872310629</v>
+        <v>0.1</v>
       </c>
       <c r="G7">
-        <v>-0.3262773971917007</v>
+        <v>-0.5103504538835113</v>
       </c>
       <c r="H7">
         <v>0.1</v>
@@ -572,26 +572,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Avena en hojuelas</t>
+          <t>Arveja verde seca importada</t>
         </is>
       </c>
       <c r="B8">
         <v>44</v>
       </c>
       <c r="C8">
-        <v>-1.601182209906103</v>
+        <v>-3.422374157877457</v>
       </c>
       <c r="D8">
-        <v>0.1</v>
+        <v>0.02009440542009516</v>
       </c>
       <c r="E8">
-        <v>-0.1130532350277472</v>
+        <v>0.3739637872310629</v>
       </c>
       <c r="F8">
-        <v>-0.1130532350277472</v>
+        <v>0.1</v>
       </c>
       <c r="G8">
-        <v>0.50817942541445</v>
+        <v>-0.3262773971917007</v>
       </c>
       <c r="H8">
         <v>0.1</v>
@@ -600,26 +600,26 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Avena molida</t>
+          <t>Avena en hojuelas</t>
         </is>
       </c>
       <c r="B9">
         <v>44</v>
       </c>
       <c r="C9">
-        <v>-2.607283812108554</v>
+        <v>-1.601182209906103</v>
       </c>
       <c r="D9">
-        <v>0.09937708839503831</v>
+        <v>0.1</v>
       </c>
       <c r="E9">
-        <v>0.4468565726758577</v>
+        <v>-0.1130532350277472</v>
       </c>
       <c r="F9">
-        <v>0.4468565726758577</v>
+        <v>0.1</v>
       </c>
       <c r="G9">
-        <v>0.08335851406418472</v>
+        <v>0.50817942541445</v>
       </c>
       <c r="H9">
         <v>0.1</v>
@@ -628,26 +628,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Azúcar morena</t>
+          <t>Avena molida</t>
         </is>
       </c>
       <c r="B10">
         <v>44</v>
       </c>
       <c r="C10">
-        <v>-2.106776058161292</v>
+        <v>-2.607283812108554</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>0.09937708839503831</v>
       </c>
       <c r="E10">
-        <v>0.4646737665170367</v>
+        <v>0.4468565726758577</v>
       </c>
       <c r="F10">
-        <v>0.4646737665170367</v>
+        <v>0.1</v>
       </c>
       <c r="G10">
-        <v>-0.961170929817754</v>
+        <v>0.08335851406418472</v>
       </c>
       <c r="H10">
         <v>0.1</v>
@@ -656,26 +656,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Azúcar sulfitada</t>
+          <t>Azúcar morena</t>
         </is>
       </c>
       <c r="B11">
         <v>44</v>
       </c>
       <c r="C11">
-        <v>-0.9705548048541743</v>
+        <v>-2.106776058161292</v>
       </c>
       <c r="D11">
         <v>0.1</v>
       </c>
       <c r="E11">
-        <v>1.027261139205535</v>
+        <v>0.4646737665170367</v>
       </c>
       <c r="F11">
-        <v>1.027261139205535</v>
+        <v>0.1</v>
       </c>
       <c r="G11">
-        <v>-1.737148533993703</v>
+        <v>-0.961170929817754</v>
       </c>
       <c r="H11">
         <v>0.1</v>
@@ -684,26 +684,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Banano criollo</t>
+          <t>Azúcar sulfitada</t>
         </is>
       </c>
       <c r="B12">
         <v>44</v>
       </c>
       <c r="C12">
-        <v>-2.747227791206606</v>
+        <v>-0.9705548048541743</v>
       </c>
       <c r="D12">
-        <v>0.07795475885835604</v>
+        <v>0.1</v>
       </c>
       <c r="E12">
-        <v>0.5683860352608405</v>
+        <v>1.027261139205535</v>
       </c>
       <c r="F12">
-        <v>0.5683860352608405</v>
+        <v>0.1</v>
       </c>
       <c r="G12">
-        <v>-0.25172181303593</v>
+        <v>-1.737148533993703</v>
       </c>
       <c r="H12">
         <v>0.1</v>
@@ -712,26 +712,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bocachico importado congelado</t>
+          <t>Banano criollo</t>
         </is>
       </c>
       <c r="B13">
         <v>44</v>
       </c>
       <c r="C13">
-        <v>-3.195603265360521</v>
+        <v>-2.747227791206606</v>
       </c>
       <c r="D13">
-        <v>0.03386359526249339</v>
+        <v>0.07795475885835604</v>
       </c>
       <c r="E13">
-        <v>0.7877310170753439</v>
+        <v>0.5683860352608405</v>
       </c>
       <c r="F13">
-        <v>0.7877310170753439</v>
+        <v>0.1</v>
       </c>
       <c r="G13">
-        <v>-0.7616405832410938</v>
+        <v>-0.25172181303593</v>
       </c>
       <c r="H13">
         <v>0.1</v>
@@ -740,26 +740,26 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Café molido</t>
+          <t>Bocachico importado congelado</t>
         </is>
       </c>
       <c r="B14">
         <v>44</v>
       </c>
       <c r="C14">
-        <v>-3.052934017090489</v>
+        <v>-3.195603265360521</v>
       </c>
       <c r="D14">
-        <v>0.04252625889757883</v>
+        <v>0.03386359526249339</v>
       </c>
       <c r="E14">
-        <v>0.9984148260125573</v>
+        <v>0.7877310170753439</v>
       </c>
       <c r="F14">
-        <v>0.9984148260125573</v>
+        <v>0.1</v>
       </c>
       <c r="G14">
-        <v>1.193752814366041</v>
+        <v>-0.7616405832410938</v>
       </c>
       <c r="H14">
         <v>0.1</v>
@@ -768,26 +768,26 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Carne de cerdo, costilla</t>
+          <t>Café molido</t>
         </is>
       </c>
       <c r="B15">
         <v>44</v>
       </c>
       <c r="C15">
-        <v>-1.983953136762046</v>
+        <v>-3.052934017090489</v>
       </c>
       <c r="D15">
-        <v>0.1</v>
+        <v>0.04252625889757883</v>
       </c>
       <c r="E15">
-        <v>1.446291398601304</v>
+        <v>0.9984148260125573</v>
       </c>
       <c r="F15">
-        <v>1.446291398601304</v>
+        <v>0.1</v>
       </c>
       <c r="G15">
-        <v>1.034152025607649</v>
+        <v>1.193752814366041</v>
       </c>
       <c r="H15">
         <v>0.1</v>
@@ -796,26 +796,26 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Carne de cerdo, espinazo</t>
+          <t>Carne de cerdo, costilla</t>
         </is>
       </c>
       <c r="B16">
         <v>44</v>
       </c>
       <c r="C16">
-        <v>-3.050788374749247</v>
+        <v>-1.983953136762046</v>
       </c>
       <c r="D16">
-        <v>0.04265653909537023</v>
+        <v>0.1</v>
       </c>
       <c r="E16">
-        <v>0.9791100587006372</v>
+        <v>1.446291398601304</v>
       </c>
       <c r="F16">
-        <v>0.9791100587006372</v>
+        <v>0.1</v>
       </c>
       <c r="G16">
-        <v>-0.7593396002778807</v>
+        <v>1.034152025607649</v>
       </c>
       <c r="H16">
         <v>0.1</v>
@@ -824,26 +824,26 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Carne de res, cadera</t>
+          <t>Carne de cerdo, espinazo</t>
         </is>
       </c>
       <c r="B17">
         <v>44</v>
       </c>
       <c r="C17">
-        <v>-2.061423968028574</v>
+        <v>-3.050788374749247</v>
       </c>
       <c r="D17">
-        <v>0.1</v>
+        <v>0.04265653909537023</v>
       </c>
       <c r="E17">
-        <v>1.100398105582078</v>
+        <v>0.9791100587006372</v>
       </c>
       <c r="F17">
-        <v>1.100398105582078</v>
+        <v>0.1</v>
       </c>
       <c r="G17">
-        <v>0.1008899470384062</v>
+        <v>-0.7593396002778807</v>
       </c>
       <c r="H17">
         <v>0.1</v>
@@ -852,26 +852,26 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Carne de res, costilla</t>
+          <t>Carne de res, cadera</t>
         </is>
       </c>
       <c r="B18">
         <v>44</v>
       </c>
       <c r="C18">
-        <v>-0.05934622652282543</v>
+        <v>-2.061423968028574</v>
       </c>
       <c r="D18">
         <v>0.1</v>
       </c>
       <c r="E18">
-        <v>1.959870097241277</v>
+        <v>1.100398105582078</v>
       </c>
       <c r="F18">
-        <v>1.959870097241277</v>
+        <v>0.1</v>
       </c>
       <c r="G18">
-        <v>-2.425361730294531</v>
+        <v>0.1008899470384062</v>
       </c>
       <c r="H18">
         <v>0.1</v>
@@ -880,26 +880,26 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Carne de res, falda</t>
+          <t>Carne de res, costilla</t>
         </is>
       </c>
       <c r="B19">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>-2.768283467567719</v>
+        <v>-0.05934622652282543</v>
       </c>
       <c r="D19">
-        <v>0.07473160027352362</v>
+        <v>0.1</v>
       </c>
       <c r="E19">
-        <v>1.22150556259685</v>
+        <v>1.959870097241277</v>
       </c>
       <c r="F19">
-        <v>1.22150556259685</v>
+        <v>0.1</v>
       </c>
       <c r="G19">
-        <v>-0.1421264348142713</v>
+        <v>-2.425361730294531</v>
       </c>
       <c r="H19">
         <v>0.1</v>
@@ -908,26 +908,26 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Carne de res, lomo de brazo</t>
+          <t>Carne de res, falda</t>
         </is>
       </c>
       <c r="B20">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>-2.769351157868525</v>
+        <v>-2.768283467567719</v>
       </c>
       <c r="D20">
-        <v>0.07839305095690463</v>
+        <v>0.07473160027352362</v>
       </c>
       <c r="E20">
-        <v>0.4179097813818139</v>
+        <v>1.22150556259685</v>
       </c>
       <c r="F20">
-        <v>0.4179097813818139</v>
+        <v>0.1</v>
       </c>
       <c r="G20">
-        <v>-0.8163424860889164</v>
+        <v>-0.1421264348142713</v>
       </c>
       <c r="H20">
         <v>0.1</v>
@@ -936,26 +936,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Carne de res, lomo fino</t>
+          <t>Carne de res, lomo de brazo</t>
         </is>
       </c>
       <c r="B21">
         <v>30</v>
       </c>
       <c r="C21">
-        <v>-2.491808314169651</v>
+        <v>-2.769351157868525</v>
       </c>
       <c r="D21">
-        <v>0.1</v>
+        <v>0.07839305095690463</v>
       </c>
       <c r="E21">
-        <v>0.6913547939542271</v>
+        <v>0.4179097813818139</v>
       </c>
       <c r="F21">
-        <v>0.6913547939542271</v>
+        <v>0.1</v>
       </c>
       <c r="G21">
-        <v>-0.5934986551224291</v>
+        <v>-0.8163424860889164</v>
       </c>
       <c r="H21">
         <v>0.1</v>
@@ -964,26 +964,26 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Carne de res, pecho</t>
+          <t>Carne de res, lomo fino</t>
         </is>
       </c>
       <c r="B22">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C22">
-        <v>-1.882140177271472</v>
+        <v>-2.491808314169651</v>
       </c>
       <c r="D22">
         <v>0.1</v>
       </c>
       <c r="E22">
-        <v>1.251212291648639</v>
+        <v>0.6913547939542271</v>
       </c>
       <c r="F22">
-        <v>1.251212291648639</v>
+        <v>0.1</v>
       </c>
       <c r="G22">
-        <v>0.1167351966720138</v>
+        <v>-0.5934986551224291</v>
       </c>
       <c r="H22">
         <v>0.1</v>
@@ -992,26 +992,26 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Carne de res, punta de anca</t>
+          <t>Carne de res, pecho</t>
         </is>
       </c>
       <c r="B23">
         <v>44</v>
       </c>
       <c r="C23">
-        <v>-3.04559165447225</v>
+        <v>-1.882140177271472</v>
       </c>
       <c r="D23">
-        <v>0.0429720761877088</v>
+        <v>0.1</v>
       </c>
       <c r="E23">
-        <v>0.8572143888172762</v>
+        <v>1.251212291648639</v>
       </c>
       <c r="F23">
-        <v>0.8572143888172762</v>
+        <v>0.1</v>
       </c>
       <c r="G23">
-        <v>-0.3486137348341847</v>
+        <v>0.1167351966720138</v>
       </c>
       <c r="H23">
         <v>0.1</v>
@@ -1020,26 +1020,26 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cebolla cabezona blanca bogotana</t>
+          <t>Carne de res, punta de anca</t>
         </is>
       </c>
       <c r="B24">
         <v>44</v>
       </c>
       <c r="C24">
-        <v>-2.503670606722368</v>
+        <v>-3.04559165447225</v>
       </c>
       <c r="D24">
-        <v>0.1</v>
+        <v>0.0429720761877088</v>
       </c>
       <c r="E24">
-        <v>1.124799036116676</v>
+        <v>0.8572143888172762</v>
       </c>
       <c r="F24">
-        <v>1.124799036116676</v>
+        <v>0.1</v>
       </c>
       <c r="G24">
-        <v>-1.517136431795503</v>
+        <v>-0.3486137348341847</v>
       </c>
       <c r="H24">
         <v>0.1</v>
@@ -1048,26 +1048,26 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cebolla cabezona blanca pastusa</t>
+          <t>Cebolla cabezona blanca bogotana</t>
         </is>
       </c>
       <c r="B25">
         <v>44</v>
       </c>
       <c r="C25">
-        <v>-2.428162666324654</v>
+        <v>-2.503670606722368</v>
       </c>
       <c r="D25">
         <v>0.1</v>
       </c>
       <c r="E25">
-        <v>1.005148494176098</v>
+        <v>1.124799036116676</v>
       </c>
       <c r="F25">
-        <v>1.005148494176098</v>
+        <v>0.1</v>
       </c>
       <c r="G25">
-        <v>-1.408498445443107</v>
+        <v>-1.517136431795503</v>
       </c>
       <c r="H25">
         <v>0.1</v>
@@ -1076,26 +1076,26 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Cebolla cabezona roja importada</t>
+          <t>Cebolla cabezona blanca pastusa</t>
         </is>
       </c>
       <c r="B26">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C26">
-        <v>-3.313615752908523</v>
+        <v>-2.428162666324654</v>
       </c>
       <c r="D26">
-        <v>0.03134989631097322</v>
+        <v>0.1</v>
       </c>
       <c r="E26">
-        <v>0.6459336838768297</v>
+        <v>1.005148494176098</v>
       </c>
       <c r="F26">
-        <v>0.6459336838768297</v>
+        <v>0.1</v>
       </c>
       <c r="G26">
-        <v>0.7228458823400211</v>
+        <v>-1.408498445443107</v>
       </c>
       <c r="H26">
         <v>0.1</v>
@@ -1104,26 +1104,26 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Curuba</t>
+          <t>Cebolla cabezona roja importada</t>
         </is>
       </c>
       <c r="B27">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C27">
-        <v>0.3949152078893325</v>
+        <v>-3.313615752908523</v>
       </c>
       <c r="D27">
-        <v>0.1</v>
+        <v>0.03134989631097322</v>
       </c>
       <c r="E27">
-        <v>1.973791086451322</v>
+        <v>0.6459336838768297</v>
       </c>
       <c r="F27">
-        <v>1.973791086451322</v>
+        <v>0.1</v>
       </c>
       <c r="G27">
-        <v>-1.775042206001927</v>
+        <v>0.7228458823400211</v>
       </c>
       <c r="H27">
         <v>0.1</v>
@@ -1132,26 +1132,26 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fríjol verde cargamanto</t>
+          <t>Curuba</t>
         </is>
       </c>
       <c r="B28">
         <v>44</v>
       </c>
       <c r="C28">
-        <v>-2.834384563832054</v>
+        <v>0.3949152078893325</v>
       </c>
       <c r="D28">
-        <v>0.064612983695397</v>
+        <v>0.1</v>
       </c>
       <c r="E28">
-        <v>0.3802871782506567</v>
+        <v>1.973791086451322</v>
       </c>
       <c r="F28">
-        <v>0.3802871782506567</v>
+        <v>0.1</v>
       </c>
       <c r="G28">
-        <v>-2.450009541936965</v>
+        <v>-1.775042206001927</v>
       </c>
       <c r="H28">
         <v>0.1</v>
@@ -1160,26 +1160,26 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Habichuela</t>
+          <t>Fríjol verde cargamanto</t>
         </is>
       </c>
       <c r="B29">
         <v>44</v>
       </c>
       <c r="C29">
-        <v>-2.426935282155312</v>
+        <v>-2.834384563832054</v>
       </c>
       <c r="D29">
-        <v>0.1</v>
+        <v>0.064612983695397</v>
       </c>
       <c r="E29">
-        <v>0.2050312628455324</v>
+        <v>0.3802871782506567</v>
       </c>
       <c r="F29">
-        <v>0.2050312628455324</v>
+        <v>0.1</v>
       </c>
       <c r="G29">
-        <v>-0.9648207826179289</v>
+        <v>-2.450009541936965</v>
       </c>
       <c r="H29">
         <v>0.1</v>
@@ -1188,26 +1188,26 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Harina de trigo</t>
+          <t>Habichuela</t>
         </is>
       </c>
       <c r="B30">
         <v>44</v>
       </c>
       <c r="C30">
-        <v>-2.546808109859243</v>
+        <v>-2.426935282155312</v>
       </c>
       <c r="D30">
         <v>0.1</v>
       </c>
       <c r="E30">
-        <v>0.1840174760039086</v>
+        <v>0.2050312628455324</v>
       </c>
       <c r="F30">
-        <v>0.1840174760039086</v>
+        <v>0.1</v>
       </c>
       <c r="G30">
-        <v>-1.878259901041897</v>
+        <v>-0.9648207826179289</v>
       </c>
       <c r="H30">
         <v>0.1</v>
@@ -1216,26 +1216,26 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Harina precocida de maíz</t>
+          <t>Harina de trigo</t>
         </is>
       </c>
       <c r="B31">
         <v>44</v>
       </c>
       <c r="C31">
-        <v>-1.063311904807195</v>
+        <v>-2.546808109859243</v>
       </c>
       <c r="D31">
         <v>0.1</v>
       </c>
       <c r="E31">
-        <v>0.9347392825824519</v>
+        <v>0.1840174760039086</v>
       </c>
       <c r="F31">
-        <v>0.9347392825824519</v>
+        <v>0.1</v>
       </c>
       <c r="G31">
-        <v>-3.372746757758506</v>
+        <v>-1.878259901041897</v>
       </c>
       <c r="H31">
         <v>0.1</v>
@@ -1244,26 +1244,26 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Huevo blanco extra</t>
+          <t>Harina precocida de maíz</t>
         </is>
       </c>
       <c r="B32">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C32">
-        <v>-3.38018161708924</v>
+        <v>-1.063311904807195</v>
       </c>
       <c r="D32">
-        <v>0.02722637403713198</v>
+        <v>0.1</v>
       </c>
       <c r="E32">
-        <v>-0.2572212185452167</v>
+        <v>0.9347392825824519</v>
       </c>
       <c r="F32">
-        <v>-0.2572212185452167</v>
+        <v>0.1</v>
       </c>
       <c r="G32">
-        <v>-0.502968639238184</v>
+        <v>-3.372746757758506</v>
       </c>
       <c r="H32">
         <v>0.1</v>
@@ -1272,26 +1272,26 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Huevo rojo A</t>
+          <t>Huevo blanco extra</t>
         </is>
       </c>
       <c r="B33">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C33">
-        <v>-2.216099215930504</v>
+        <v>-3.38018161708924</v>
       </c>
       <c r="D33">
-        <v>0.1</v>
+        <v>0.02722637403713198</v>
       </c>
       <c r="E33">
-        <v>0.3362176177800086</v>
+        <v>-0.2572212185452167</v>
       </c>
       <c r="F33">
-        <v>0.3362176177800086</v>
+        <v>0.1</v>
       </c>
       <c r="G33">
-        <v>-1.777363475581933</v>
+        <v>-0.502968639238184</v>
       </c>
       <c r="H33">
         <v>0.1</v>
@@ -1300,26 +1300,26 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Huevo rojo AA</t>
+          <t>Huevo rojo A</t>
         </is>
       </c>
       <c r="B34">
         <v>44</v>
       </c>
       <c r="C34">
-        <v>-3.025480848901585</v>
+        <v>-2.216099215930504</v>
       </c>
       <c r="D34">
-        <v>0.044193174260361</v>
+        <v>0.1</v>
       </c>
       <c r="E34">
-        <v>0.1889559406568706</v>
+        <v>0.3362176177800086</v>
       </c>
       <c r="F34">
-        <v>0.1889559406568706</v>
+        <v>0.1</v>
       </c>
       <c r="G34">
-        <v>-1.570391888499749</v>
+        <v>-1.777363475581933</v>
       </c>
       <c r="H34">
         <v>0.1</v>
@@ -1328,26 +1328,26 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Huevo rojo extra</t>
+          <t>Huevo rojo AA</t>
         </is>
       </c>
       <c r="B35">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C35">
-        <v>-2.199928184284033</v>
+        <v>-3.025480848901585</v>
       </c>
       <c r="D35">
-        <v>0.1</v>
+        <v>0.044193174260361</v>
       </c>
       <c r="E35">
-        <v>0.7188323018874643</v>
+        <v>0.1889559406568706</v>
       </c>
       <c r="F35">
-        <v>0.7188323018874643</v>
+        <v>0.1</v>
       </c>
       <c r="G35">
-        <v>-0.2210089320361305</v>
+        <v>-1.570391888499749</v>
       </c>
       <c r="H35">
         <v>0.1</v>
@@ -1356,26 +1356,26 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Leche en polvo</t>
+          <t>Huevo rojo extra</t>
         </is>
       </c>
       <c r="B36">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C36">
-        <v>-1.797631776770692</v>
+        <v>-2.199928184284033</v>
       </c>
       <c r="D36">
         <v>0.1</v>
       </c>
       <c r="E36">
-        <v>0.4943581459100289</v>
+        <v>0.7188323018874643</v>
       </c>
       <c r="F36">
-        <v>0.4943581459100289</v>
+        <v>0.1</v>
       </c>
       <c r="G36">
-        <v>-1.495130628704916</v>
+        <v>-0.2210089320361305</v>
       </c>
       <c r="H36">
         <v>0.1</v>
@@ -1384,26 +1384,26 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Lechuga Batavia</t>
+          <t>Leche en polvo</t>
         </is>
       </c>
       <c r="B37">
         <v>44</v>
       </c>
       <c r="C37">
-        <v>-2.753672251912891</v>
+        <v>-1.797631776770692</v>
       </c>
       <c r="D37">
-        <v>0.07696825438831016</v>
+        <v>0.1</v>
       </c>
       <c r="E37">
-        <v>0.6866845658037525</v>
+        <v>0.4943581459100289</v>
       </c>
       <c r="F37">
-        <v>0.6866845658037525</v>
+        <v>0.1</v>
       </c>
       <c r="G37">
-        <v>-2.974084070791564</v>
+        <v>-1.495130628704916</v>
       </c>
       <c r="H37">
         <v>0.1</v>
@@ -1412,26 +1412,26 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Lenteja importada</t>
+          <t>Lechuga Batavia</t>
         </is>
       </c>
       <c r="B38">
         <v>44</v>
       </c>
       <c r="C38">
-        <v>-2.166832101723685</v>
+        <v>-2.753672251912891</v>
       </c>
       <c r="D38">
-        <v>0.1</v>
+        <v>0.07696825438831016</v>
       </c>
       <c r="E38">
-        <v>0.1626691453707981</v>
+        <v>0.6866845658037525</v>
       </c>
       <c r="F38">
-        <v>0.1626691453707981</v>
+        <v>0.1</v>
       </c>
       <c r="G38">
-        <v>-1.603491457851463</v>
+        <v>-2.974084070791564</v>
       </c>
       <c r="H38">
         <v>0.1</v>
@@ -1440,26 +1440,26 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Limón Tahití</t>
+          <t>Lenteja importada</t>
         </is>
       </c>
       <c r="B39">
         <v>44</v>
       </c>
       <c r="C39">
-        <v>-3.370827826290342</v>
+        <v>-2.166832101723685</v>
       </c>
       <c r="D39">
-        <v>0.02322422167395672</v>
+        <v>0.1</v>
       </c>
       <c r="E39">
-        <v>0.3165492829434648</v>
+        <v>0.1626691453707981</v>
       </c>
       <c r="F39">
-        <v>0.3165492829434648</v>
+        <v>0.1</v>
       </c>
       <c r="G39">
-        <v>-0.5640244218084944</v>
+        <v>-1.603491457851463</v>
       </c>
       <c r="H39">
         <v>0.1</v>
@@ -1468,26 +1468,26 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Lomitos de atún en lata</t>
+          <t>Limón Tahití</t>
         </is>
       </c>
       <c r="B40">
         <v>44</v>
       </c>
       <c r="C40">
-        <v>-3.106923361331193</v>
+        <v>-3.370827826290342</v>
       </c>
       <c r="D40">
-        <v>0.03924810656477305</v>
+        <v>0.02322422167395672</v>
       </c>
       <c r="E40">
-        <v>0.5650725432234879</v>
+        <v>0.3165492829434648</v>
       </c>
       <c r="F40">
-        <v>0.5650725432234879</v>
+        <v>0.1</v>
       </c>
       <c r="G40">
-        <v>-0.3415063356234027</v>
+        <v>-0.5640244218084944</v>
       </c>
       <c r="H40">
         <v>0.1</v>
@@ -1496,26 +1496,26 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Lulo</t>
+          <t>Lomitos de atún en lata</t>
         </is>
       </c>
       <c r="B41">
         <v>44</v>
       </c>
       <c r="C41">
-        <v>-1.873920241492391</v>
+        <v>-3.106923361331193</v>
       </c>
       <c r="D41">
-        <v>0.1</v>
+        <v>0.03924810656477305</v>
       </c>
       <c r="E41">
-        <v>0.2075487340920273</v>
+        <v>0.5650725432234879</v>
       </c>
       <c r="F41">
-        <v>0.2075487340920273</v>
+        <v>0.1</v>
       </c>
       <c r="G41">
-        <v>-0.2056254973033657</v>
+        <v>-0.3415063356234027</v>
       </c>
       <c r="H41">
         <v>0.1</v>
@@ -1524,26 +1524,26 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Mango común</t>
+          <t>Lulo</t>
         </is>
       </c>
       <c r="B42">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C42">
-        <v>-4.689216505550636</v>
+        <v>-1.873920241492391</v>
       </c>
       <c r="D42">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E42">
-        <v>1.354033945795253</v>
+        <v>0.2075487340920273</v>
       </c>
       <c r="F42">
-        <v>1.354033945795253</v>
+        <v>0.1</v>
       </c>
       <c r="G42">
-        <v>0.5273671603028085</v>
+        <v>-0.2056254973033657</v>
       </c>
       <c r="H42">
         <v>0.1</v>
@@ -1552,26 +1552,26 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Manzana roja importada</t>
+          <t>Mango común</t>
         </is>
       </c>
       <c r="B43">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C43">
-        <v>-2.872279075878477</v>
+        <v>-4.689216505550636</v>
       </c>
       <c r="D43">
-        <v>0.05881217161386069</v>
+        <v>0.01</v>
       </c>
       <c r="E43">
-        <v>0.02439571925636702</v>
+        <v>1.354033945795253</v>
       </c>
       <c r="F43">
-        <v>0.02439571925636702</v>
+        <v>0.1</v>
       </c>
       <c r="G43">
-        <v>-1.230506044600649</v>
+        <v>0.5273671603028085</v>
       </c>
       <c r="H43">
         <v>0.1</v>
@@ -1580,26 +1580,26 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Manzana royal gala importada</t>
+          <t>Manzana roja importada</t>
         </is>
       </c>
       <c r="B44">
         <v>44</v>
       </c>
       <c r="C44">
-        <v>-3.064161613028784</v>
+        <v>-2.872279075878477</v>
       </c>
       <c r="D44">
-        <v>0.04184453604403149</v>
+        <v>0.05881217161386069</v>
       </c>
       <c r="E44">
-        <v>0.06615117777988819</v>
+        <v>0.02439571925636702</v>
       </c>
       <c r="F44">
-        <v>0.06615117777988819</v>
+        <v>0.1</v>
       </c>
       <c r="G44">
-        <v>-1.522520513728324</v>
+        <v>-1.230506044600649</v>
       </c>
       <c r="H44">
         <v>0.1</v>
@@ -1608,26 +1608,26 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Manzana verde importada</t>
+          <t>Manzana royal gala importada</t>
         </is>
       </c>
       <c r="B45">
         <v>44</v>
       </c>
       <c r="C45">
-        <v>-2.883425028848054</v>
+        <v>-3.064161613028784</v>
       </c>
       <c r="D45">
-        <v>0.05710597261156318</v>
+        <v>0.04184453604403149</v>
       </c>
       <c r="E45">
-        <v>0.3707990335394138</v>
+        <v>0.06615117777988819</v>
       </c>
       <c r="F45">
-        <v>0.3707990335394138</v>
+        <v>0.1</v>
       </c>
       <c r="G45">
-        <v>-1.455666964419885</v>
+        <v>-1.522520513728324</v>
       </c>
       <c r="H45">
         <v>0.1</v>
@@ -1636,26 +1636,26 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Maracuyá</t>
+          <t>Manzana verde importada</t>
         </is>
       </c>
       <c r="B46">
         <v>44</v>
       </c>
       <c r="C46">
-        <v>-2.846514277502276</v>
+        <v>-2.883425028848054</v>
       </c>
       <c r="D46">
-        <v>0.0627561926772781</v>
+        <v>0.05710597261156318</v>
       </c>
       <c r="E46">
-        <v>0.2530477254132102</v>
+        <v>0.3707990335394138</v>
       </c>
       <c r="F46">
-        <v>0.2530477254132102</v>
+        <v>0.1</v>
       </c>
       <c r="G46">
-        <v>-0.5935293743821054</v>
+        <v>-1.455666964419885</v>
       </c>
       <c r="H46">
         <v>0.1</v>
@@ -1664,26 +1664,26 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Margarina</t>
+          <t>Maracuyá</t>
         </is>
       </c>
       <c r="B47">
         <v>44</v>
       </c>
       <c r="C47">
-        <v>-1.479024701198808</v>
+        <v>-2.846514277502276</v>
       </c>
       <c r="D47">
-        <v>0.1</v>
+        <v>0.0627561926772781</v>
       </c>
       <c r="E47">
-        <v>0.5904094150684477</v>
+        <v>0.2530477254132102</v>
       </c>
       <c r="F47">
-        <v>0.5904094150684477</v>
+        <v>0.1</v>
       </c>
       <c r="G47">
-        <v>-1.902963111188707</v>
+        <v>-0.5935293743821054</v>
       </c>
       <c r="H47">
         <v>0.1</v>
@@ -1692,26 +1692,26 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Mora de Castilla</t>
+          <t>Margarina</t>
         </is>
       </c>
       <c r="B48">
         <v>44</v>
       </c>
       <c r="C48">
-        <v>-1.212575525012064</v>
+        <v>-1.479024701198808</v>
       </c>
       <c r="D48">
         <v>0.1</v>
       </c>
       <c r="E48">
-        <v>1.052354839121073</v>
+        <v>0.5904094150684477</v>
       </c>
       <c r="F48">
-        <v>1.052354839121073</v>
+        <v>0.1</v>
       </c>
       <c r="G48">
-        <v>-1.462964902866284</v>
+        <v>-1.902963111188707</v>
       </c>
       <c r="H48">
         <v>0.1</v>
@@ -1720,26 +1720,26 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Naranja Sweet</t>
+          <t>Mora de Castilla</t>
         </is>
       </c>
       <c r="B49">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C49">
-        <v>-2.474305064806873</v>
+        <v>-1.212575525012064</v>
       </c>
       <c r="D49">
         <v>0.1</v>
       </c>
       <c r="E49">
-        <v>0.6409964042038184</v>
+        <v>1.052354839121073</v>
       </c>
       <c r="F49">
-        <v>0.6409964042038184</v>
+        <v>0.1</v>
       </c>
       <c r="G49">
-        <v>0.1099641931336533</v>
+        <v>-1.462964902866284</v>
       </c>
       <c r="H49">
         <v>0.1</v>
@@ -1748,26 +1748,26 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Naranja Valencia</t>
+          <t>Naranja Sweet</t>
         </is>
       </c>
       <c r="B50">
         <v>35</v>
       </c>
       <c r="C50">
-        <v>-2.510507820291977</v>
+        <v>-2.474305064806873</v>
       </c>
       <c r="D50">
         <v>0.1</v>
       </c>
       <c r="E50">
-        <v>0.4149475228439929</v>
+        <v>0.6409964042038184</v>
       </c>
       <c r="F50">
-        <v>0.4149475228439929</v>
+        <v>0.1</v>
       </c>
       <c r="G50">
-        <v>-1.305790025101151</v>
+        <v>0.1099641931336533</v>
       </c>
       <c r="H50">
         <v>0.1</v>
@@ -1776,26 +1776,26 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Panela redonda morena</t>
+          <t>Naranja Valencia</t>
         </is>
       </c>
       <c r="B51">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C51">
-        <v>-2.970217470903021</v>
+        <v>-2.510507820291977</v>
       </c>
       <c r="D51">
-        <v>0.04754868401978751</v>
+        <v>0.1</v>
       </c>
       <c r="E51">
-        <v>0.5966674562302184</v>
+        <v>0.4149475228439929</v>
       </c>
       <c r="F51">
-        <v>0.5966674562302184</v>
+        <v>0.1</v>
       </c>
       <c r="G51">
-        <v>-0.01911412715465545</v>
+        <v>-1.305790025101151</v>
       </c>
       <c r="H51">
         <v>0.1</v>
@@ -1804,26 +1804,26 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Papa Betina</t>
+          <t>Panela redonda morena</t>
         </is>
       </c>
       <c r="B52">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C52">
-        <v>-3.111385035538465</v>
+        <v>-2.970217470903021</v>
       </c>
       <c r="D52">
-        <v>0.04047730619251422</v>
+        <v>0.04754868401978751</v>
       </c>
       <c r="E52">
-        <v>1.004785740691146</v>
+        <v>0.5966674562302184</v>
       </c>
       <c r="F52">
-        <v>1.004785740691146</v>
+        <v>0.1</v>
       </c>
       <c r="G52">
-        <v>-0.7362708237704242</v>
+        <v>-0.01911412715465545</v>
       </c>
       <c r="H52">
         <v>0.1</v>
@@ -1832,26 +1832,26 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Papa capira</t>
+          <t>Papa Betina</t>
         </is>
       </c>
       <c r="B53">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C53">
-        <v>-3.304354642806113</v>
+        <v>-3.111385035538465</v>
       </c>
       <c r="D53">
-        <v>0.02726037407722231</v>
+        <v>0.04047730619251422</v>
       </c>
       <c r="E53">
-        <v>0.4053621354109334</v>
+        <v>1.004785740691146</v>
       </c>
       <c r="F53">
-        <v>0.4053621354109334</v>
+        <v>0.1</v>
       </c>
       <c r="G53">
-        <v>-1.743004781715487</v>
+        <v>-0.7362708237704242</v>
       </c>
       <c r="H53">
         <v>0.1</v>
@@ -1860,26 +1860,26 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Papa criolla limpia</t>
+          <t>Papa capira</t>
         </is>
       </c>
       <c r="B54">
         <v>44</v>
       </c>
       <c r="C54">
-        <v>-2.668467797121231</v>
+        <v>-3.304354642806113</v>
       </c>
       <c r="D54">
-        <v>0.09001117284971404</v>
+        <v>0.02726037407722231</v>
       </c>
       <c r="E54">
-        <v>0.02381122486126633</v>
+        <v>0.4053621354109334</v>
       </c>
       <c r="F54">
-        <v>0.02381122486126633</v>
+        <v>0.1</v>
       </c>
       <c r="G54">
-        <v>-0.8707840476206892</v>
+        <v>-1.743004781715487</v>
       </c>
       <c r="H54">
         <v>0.1</v>
@@ -1888,26 +1888,26 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Papa criolla sucia</t>
+          <t>Papa criolla limpia</t>
         </is>
       </c>
       <c r="B55">
         <v>44</v>
       </c>
       <c r="C55">
-        <v>-2.508332774522639</v>
+        <v>-2.668467797121231</v>
       </c>
       <c r="D55">
-        <v>0.1</v>
+        <v>0.09001117284971404</v>
       </c>
       <c r="E55">
-        <v>0.07782716030227729</v>
+        <v>0.02381122486126633</v>
       </c>
       <c r="F55">
-        <v>0.07782716030227729</v>
+        <v>0.1</v>
       </c>
       <c r="G55">
-        <v>-1.059097899467917</v>
+        <v>-0.8707840476206892</v>
       </c>
       <c r="H55">
         <v>0.1</v>
@@ -1916,26 +1916,26 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Papa nevada</t>
+          <t>Papa criolla sucia</t>
         </is>
       </c>
       <c r="B56">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C56">
-        <v>-2.799498474033342</v>
+        <v>-2.508332774522639</v>
       </c>
       <c r="D56">
-        <v>0.07220655612399775</v>
+        <v>0.1</v>
       </c>
       <c r="E56">
-        <v>0.5527458970978217</v>
+        <v>0.07782716030227729</v>
       </c>
       <c r="F56">
-        <v>0.5527458970978217</v>
+        <v>0.1</v>
       </c>
       <c r="G56">
-        <v>-0.1539281015532563</v>
+        <v>-1.059097899467917</v>
       </c>
       <c r="H56">
         <v>0.1</v>
@@ -1944,26 +1944,26 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Papa parda pastusa</t>
+          <t>Papa nevada</t>
         </is>
       </c>
       <c r="B57">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C57">
-        <v>-3.00001227736019</v>
+        <v>-2.799498474033342</v>
       </c>
       <c r="D57">
-        <v>0.04573958787930454</v>
+        <v>0.07220655612399775</v>
       </c>
       <c r="E57">
-        <v>0.7068561527650965</v>
+        <v>0.5527458970978217</v>
       </c>
       <c r="F57">
-        <v>0.7068561527650965</v>
+        <v>0.1</v>
       </c>
       <c r="G57">
-        <v>-1.907198891264511</v>
+        <v>-0.1539281015532563</v>
       </c>
       <c r="H57">
         <v>0.1</v>
@@ -1972,26 +1972,26 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Papa suprema</t>
+          <t>Papa parda pastusa</t>
         </is>
       </c>
       <c r="B58">
         <v>44</v>
       </c>
       <c r="C58">
-        <v>-2.905320257397848</v>
+        <v>-3.00001227736019</v>
       </c>
       <c r="D58">
-        <v>0.05375429714615403</v>
+        <v>0.04573958787930454</v>
       </c>
       <c r="E58">
-        <v>0.6924282198478663</v>
+        <v>0.7068561527650965</v>
       </c>
       <c r="F58">
-        <v>0.6924282198478663</v>
+        <v>0.1</v>
       </c>
       <c r="G58">
-        <v>-2.158562844050537</v>
+        <v>-1.907198891264511</v>
       </c>
       <c r="H58">
         <v>0.1</v>
@@ -2000,26 +2000,26 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Papa única</t>
+          <t>Papa suprema</t>
         </is>
       </c>
       <c r="B59">
         <v>44</v>
       </c>
       <c r="C59">
-        <v>-3.065233399089248</v>
+        <v>-2.905320257397848</v>
       </c>
       <c r="D59">
-        <v>0.0417794587954782</v>
+        <v>0.05375429714615403</v>
       </c>
       <c r="E59">
-        <v>0.5717785641782457</v>
+        <v>0.6924282198478663</v>
       </c>
       <c r="F59">
-        <v>0.5717785641782457</v>
+        <v>0.1</v>
       </c>
       <c r="G59">
-        <v>-2.026537461949342</v>
+        <v>-2.158562844050537</v>
       </c>
       <c r="H59">
         <v>0.1</v>
@@ -2028,26 +2028,26 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Pastas alimenticias</t>
+          <t>Papa única</t>
         </is>
       </c>
       <c r="B60">
         <v>44</v>
       </c>
       <c r="C60">
-        <v>-2.374264973711365</v>
+        <v>-3.065233399089248</v>
       </c>
       <c r="D60">
-        <v>0.1</v>
+        <v>0.0417794587954782</v>
       </c>
       <c r="E60">
-        <v>0.3779537356869658</v>
+        <v>0.5717785641782457</v>
       </c>
       <c r="F60">
-        <v>0.3779537356869658</v>
+        <v>0.1</v>
       </c>
       <c r="G60">
-        <v>-0.3159560572701188</v>
+        <v>-2.026537461949342</v>
       </c>
       <c r="H60">
         <v>0.1</v>
@@ -2056,26 +2056,26 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Pechuga de pollo</t>
+          <t>Pastas alimenticias</t>
         </is>
       </c>
       <c r="B61">
         <v>44</v>
       </c>
       <c r="C61">
-        <v>-3.916607945536227</v>
+        <v>-2.374264973711365</v>
       </c>
       <c r="D61">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E61">
-        <v>0.3411466194802901</v>
+        <v>0.3779537356869658</v>
       </c>
       <c r="F61">
-        <v>0.3411466194802901</v>
+        <v>0.1</v>
       </c>
       <c r="G61">
-        <v>-0.02778659326144554</v>
+        <v>-0.3159560572701188</v>
       </c>
       <c r="H61">
         <v>0.1</v>
@@ -2084,26 +2084,26 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Piña gold</t>
+          <t>Pechuga de pollo</t>
         </is>
       </c>
       <c r="B62">
         <v>44</v>
       </c>
       <c r="C62">
-        <v>-1.177901172536277</v>
+        <v>-3.916607945536227</v>
       </c>
       <c r="D62">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E62">
-        <v>1.369526454126307</v>
+        <v>0.3411466194802901</v>
       </c>
       <c r="F62">
-        <v>1.369526454126307</v>
+        <v>0.1</v>
       </c>
       <c r="G62">
-        <v>-3.111185501255992</v>
+        <v>-0.02778659326144554</v>
       </c>
       <c r="H62">
         <v>0.1</v>
@@ -2112,26 +2112,26 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Piña manzana</t>
+          <t>Piña gold</t>
         </is>
       </c>
       <c r="B63">
         <v>44</v>
       </c>
       <c r="C63">
-        <v>-2.380980556011703</v>
+        <v>-1.177901172536277</v>
       </c>
       <c r="D63">
         <v>0.1</v>
       </c>
       <c r="E63">
-        <v>0.5810558654588079</v>
+        <v>1.369526454126307</v>
       </c>
       <c r="F63">
-        <v>0.5810558654588079</v>
+        <v>0.1</v>
       </c>
       <c r="G63">
-        <v>-1.75188843234881</v>
+        <v>-3.111185501255992</v>
       </c>
       <c r="H63">
         <v>0.1</v>
@@ -2140,26 +2140,26 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Pollo entero congelado sin vísceras</t>
+          <t>Piña manzana</t>
         </is>
       </c>
       <c r="B64">
         <v>44</v>
       </c>
       <c r="C64">
-        <v>-2.480409121878269</v>
+        <v>-2.380980556011703</v>
       </c>
       <c r="D64">
         <v>0.1</v>
       </c>
       <c r="E64">
-        <v>0.4216843267674212</v>
+        <v>0.5810558654588079</v>
       </c>
       <c r="F64">
-        <v>0.4216843267674212</v>
+        <v>0.1</v>
       </c>
       <c r="G64">
-        <v>-1.08933087878075</v>
+        <v>-1.75188843234881</v>
       </c>
       <c r="H64">
         <v>0.1</v>
@@ -2168,26 +2168,26 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Queso campesino</t>
+          <t>Pollo entero congelado sin vísceras</t>
         </is>
       </c>
       <c r="B65">
         <v>44</v>
       </c>
       <c r="C65">
-        <v>-2.315277772738774</v>
+        <v>-2.480409121878269</v>
       </c>
       <c r="D65">
         <v>0.1</v>
       </c>
       <c r="E65">
-        <v>0.8105791812436903</v>
+        <v>0.4216843267674212</v>
       </c>
       <c r="F65">
-        <v>0.8105791812436903</v>
+        <v>0.1</v>
       </c>
       <c r="G65">
-        <v>0.9204745271444937</v>
+        <v>-1.08933087878075</v>
       </c>
       <c r="H65">
         <v>0.1</v>
@@ -2196,26 +2196,26 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Repollo blanco</t>
+          <t>Queso campesino</t>
         </is>
       </c>
       <c r="B66">
         <v>44</v>
       </c>
       <c r="C66">
-        <v>-2.05885487056747</v>
+        <v>-2.315277772738774</v>
       </c>
       <c r="D66">
         <v>0.1</v>
       </c>
       <c r="E66">
-        <v>0.9613024797877689</v>
+        <v>0.8105791812436903</v>
       </c>
       <c r="F66">
-        <v>0.9613024797877689</v>
+        <v>0.1</v>
       </c>
       <c r="G66">
-        <v>-1.647281359333232</v>
+        <v>0.9204745271444937</v>
       </c>
       <c r="H66">
         <v>0.1</v>
@@ -2224,26 +2224,26 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sal yodada</t>
+          <t>Repollo blanco</t>
         </is>
       </c>
       <c r="B67">
         <v>44</v>
       </c>
       <c r="C67">
-        <v>-1.808329976390309</v>
+        <v>-2.05885487056747</v>
       </c>
       <c r="D67">
         <v>0.1</v>
       </c>
       <c r="E67">
-        <v>0.8124722297371391</v>
+        <v>0.9613024797877689</v>
       </c>
       <c r="F67">
-        <v>0.8124722297371391</v>
+        <v>0.1</v>
       </c>
       <c r="G67">
-        <v>0.1868165092859991</v>
+        <v>-1.647281359333232</v>
       </c>
       <c r="H67">
         <v>0.1</v>
@@ -2252,26 +2252,26 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Tilapia roja entera congelada</t>
+          <t>Sal yodada</t>
         </is>
       </c>
       <c r="B68">
         <v>44</v>
       </c>
       <c r="C68">
-        <v>-2.403750820256342</v>
+        <v>-1.808329976390309</v>
       </c>
       <c r="D68">
         <v>0.1</v>
       </c>
       <c r="E68">
-        <v>0.255312487854453</v>
+        <v>0.8124722297371391</v>
       </c>
       <c r="F68">
-        <v>0.255312487854453</v>
+        <v>0.1</v>
       </c>
       <c r="G68">
-        <v>-0.03358692916835482</v>
+        <v>0.1868165092859991</v>
       </c>
       <c r="H68">
         <v>0.1</v>
@@ -2280,26 +2280,26 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Tomate de árbol</t>
+          <t>Tilapia roja entera congelada</t>
         </is>
       </c>
       <c r="B69">
         <v>44</v>
       </c>
       <c r="C69">
-        <v>-3.46456147833759</v>
+        <v>-2.403750820256342</v>
       </c>
       <c r="D69">
-        <v>0.01753285434133717</v>
+        <v>0.1</v>
       </c>
       <c r="E69">
-        <v>1.189299109911341</v>
+        <v>0.255312487854453</v>
       </c>
       <c r="F69">
-        <v>1.189299109911341</v>
+        <v>0.1</v>
       </c>
       <c r="G69">
-        <v>0.2252658293850751</v>
+        <v>-0.03358692916835482</v>
       </c>
       <c r="H69">
         <v>0.1</v>
@@ -2308,26 +2308,26 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Tomate larga vida</t>
+          <t>Tomate de árbol</t>
         </is>
       </c>
       <c r="B70">
         <v>44</v>
       </c>
       <c r="C70">
-        <v>-2.922563481906522</v>
+        <v>-3.46456147833759</v>
       </c>
       <c r="D70">
-        <v>0.05111474066019061</v>
+        <v>0.01753285434133717</v>
       </c>
       <c r="E70">
-        <v>0.06288632471042915</v>
+        <v>1.189299109911341</v>
       </c>
       <c r="F70">
-        <v>0.06288632471042915</v>
+        <v>0.1</v>
       </c>
       <c r="G70">
-        <v>-1.230755231292283</v>
+        <v>0.2252658293850751</v>
       </c>
       <c r="H70">
         <v>0.1</v>
@@ -2336,28 +2336,56 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>Tomate larga vida</t>
+        </is>
+      </c>
+      <c r="B71">
+        <v>44</v>
+      </c>
+      <c r="C71">
+        <v>-2.922563481906522</v>
+      </c>
+      <c r="D71">
+        <v>0.05111474066019061</v>
+      </c>
+      <c r="E71">
+        <v>0.06288632471042915</v>
+      </c>
+      <c r="F71">
+        <v>0.1</v>
+      </c>
+      <c r="G71">
+        <v>-1.230755231292283</v>
+      </c>
+      <c r="H71">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
           <t>Zanahoria</t>
         </is>
       </c>
-      <c r="B71">
-        <v>44</v>
-      </c>
-      <c r="C71">
+      <c r="B72">
+        <v>44</v>
+      </c>
+      <c r="C72">
         <v>-1.720620935297901</v>
       </c>
-      <c r="D71">
-        <v>0.1</v>
-      </c>
-      <c r="E71">
+      <c r="D72">
+        <v>0.1</v>
+      </c>
+      <c r="E72">
         <v>0.6234503476402953</v>
       </c>
-      <c r="F71">
-        <v>0.6234503476402953</v>
-      </c>
-      <c r="G71">
+      <c r="F72">
+        <v>0.1</v>
+      </c>
+      <c r="G72">
         <v>-1.265083784632748</v>
       </c>
-      <c r="H71">
+      <c r="H72">
         <v>0.1</v>
       </c>
     </row>
@@ -2368,7 +2396,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2431,1518 +2459,1540 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ahuyama</t>
+          <t>Aguacate papelillo</t>
         </is>
       </c>
       <c r="B3">
         <v>43</v>
       </c>
       <c r="C3">
-        <v>0.02802540647565161</v>
+        <v>0.2763869104402946</v>
       </c>
       <c r="D3">
-        <v>0.132808334204277</v>
+        <v>0.2190909115715139</v>
       </c>
       <c r="E3">
-        <v>-0.17951285141623</v>
+        <v>-0.4752040314708642</v>
       </c>
       <c r="F3">
-        <v>0.07974116746088175</v>
+        <v>0.1481749524523158</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Arracacha amarilla</t>
+          <t>Ahuyama</t>
         </is>
       </c>
       <c r="B4">
         <v>43</v>
       </c>
       <c r="C4">
-        <v>0.06029085732469893</v>
+        <v>0.02802540647565161</v>
       </c>
       <c r="D4">
-        <v>0.1025375900774899</v>
+        <v>0.132808334204277</v>
       </c>
       <c r="E4">
-        <v>-0.0909948996390841</v>
+        <v>-0.17951285141623</v>
       </c>
       <c r="F4">
-        <v>0.04817480672831605</v>
+        <v>0.07974116746088175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Arroz de primera</t>
+          <t>Arracacha amarilla</t>
         </is>
       </c>
       <c r="B5">
         <v>43</v>
       </c>
       <c r="C5">
-        <v>0.3473523068774755</v>
+        <v>0.06029085732469893</v>
       </c>
       <c r="D5">
-        <v>0.1241782776344002</v>
+        <v>0.1025375900774899</v>
       </c>
       <c r="E5">
-        <v>-0.6252338378047145</v>
+        <v>-0.0909948996390841</v>
       </c>
       <c r="F5">
-        <v>0.0912327575923257</v>
+        <v>0.04817480672831605</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Arveja verde en vaina pastusa</t>
+          <t>Arroz de primera</t>
         </is>
       </c>
       <c r="B6">
         <v>43</v>
       </c>
       <c r="C6">
-        <v>-0.5095634817165098</v>
+        <v>0.3473523068774755</v>
       </c>
       <c r="D6">
-        <v>0.3770340543711684</v>
+        <v>0.1241782776344002</v>
       </c>
       <c r="E6">
-        <v>-0.662106780270275</v>
+        <v>-0.6252338378047145</v>
       </c>
       <c r="F6">
-        <v>0.1559369222026255</v>
+        <v>0.0912327575923257</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Arveja verde seca importada</t>
+          <t>Arveja verde en vaina pastusa</t>
         </is>
       </c>
       <c r="B7">
         <v>43</v>
       </c>
       <c r="C7">
-        <v>0.06806419563089955</v>
+        <v>-0.5095634817165098</v>
       </c>
       <c r="D7">
-        <v>0.1975187890733993</v>
+        <v>0.3770340543711684</v>
       </c>
       <c r="E7">
-        <v>-0.1722161243673015</v>
+        <v>-0.662106780270275</v>
       </c>
       <c r="F7">
-        <v>0.0741675549577331</v>
+        <v>0.1559369222026255</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Avena en hojuelas</t>
+          <t>Arveja verde seca importada</t>
         </is>
       </c>
       <c r="B8">
         <v>43</v>
       </c>
       <c r="C8">
-        <v>0.4566893672293522</v>
+        <v>0.06806419563089955</v>
       </c>
       <c r="D8">
-        <v>0.3655952993773798</v>
+        <v>0.1975187890733993</v>
       </c>
       <c r="E8">
-        <v>-0.155357168340097</v>
+        <v>-0.1722161243673015</v>
       </c>
       <c r="F8">
-        <v>0.1143494768708463</v>
+        <v>0.0741675549577331</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Avena molida</t>
+          <t>Avena en hojuelas</t>
         </is>
       </c>
       <c r="B9">
         <v>43</v>
       </c>
       <c r="C9">
-        <v>-0.1099508771395934</v>
+        <v>0.4566893672293522</v>
       </c>
       <c r="D9">
-        <v>0.3345149919838391</v>
+        <v>0.3655952993773798</v>
       </c>
       <c r="E9">
-        <v>-0.1908435337413487</v>
+        <v>-0.155357168340097</v>
       </c>
       <c r="F9">
-        <v>0.1181560349998194</v>
+        <v>0.1143494768708463</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Azúcar morena</t>
+          <t>Avena molida</t>
         </is>
       </c>
       <c r="B10">
         <v>43</v>
       </c>
       <c r="C10">
-        <v>0.1706804991071725</v>
+        <v>-0.1099508771395934</v>
       </c>
       <c r="D10">
-        <v>0.1429324426395095</v>
+        <v>0.3345149919838391</v>
       </c>
       <c r="E10">
-        <v>-0.1672886849068082</v>
+        <v>-0.1908435337413487</v>
       </c>
       <c r="F10">
-        <v>0.07687571002453895</v>
+        <v>0.1181560349998194</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Azúcar sulfitada</t>
+          <t>Azúcar morena</t>
         </is>
       </c>
       <c r="B11">
         <v>43</v>
       </c>
       <c r="C11">
-        <v>-0.08806833058984154</v>
+        <v>0.1706804991071725</v>
       </c>
       <c r="D11">
-        <v>0.2155498436486049</v>
+        <v>0.1429324426395095</v>
       </c>
       <c r="E11">
-        <v>-0.1395189962848289</v>
+        <v>-0.1672886849068082</v>
       </c>
       <c r="F11">
-        <v>0.06490283254037689</v>
+        <v>0.07687571002453895</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Banano criollo</t>
+          <t>Azúcar sulfitada</t>
         </is>
       </c>
       <c r="B12">
         <v>43</v>
       </c>
       <c r="C12">
-        <v>0.1886040236165425</v>
+        <v>-0.08806833058984154</v>
       </c>
       <c r="D12">
-        <v>0.1346282772387648</v>
+        <v>0.2155498436486049</v>
       </c>
       <c r="E12">
-        <v>-0.2068729712167026</v>
+        <v>-0.1395189962848289</v>
       </c>
       <c r="F12">
-        <v>0.1153560732826232</v>
+        <v>0.06490283254037689</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bocachico importado congelado</t>
+          <t>Banano criollo</t>
         </is>
       </c>
       <c r="B13">
         <v>43</v>
       </c>
       <c r="C13">
-        <v>0.2290330571982155</v>
+        <v>0.1886040236165425</v>
       </c>
       <c r="D13">
-        <v>0.1700394391288818</v>
+        <v>0.1346282772387648</v>
       </c>
       <c r="E13">
-        <v>0.01498083120064118</v>
+        <v>-0.2068729712167026</v>
       </c>
       <c r="F13">
-        <v>0.09998548358477775</v>
+        <v>0.1153560732826232</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Café molido</t>
+          <t>Bocachico importado congelado</t>
         </is>
       </c>
       <c r="B14">
         <v>43</v>
       </c>
       <c r="C14">
-        <v>-0.2289029766705432</v>
+        <v>0.2290330571982155</v>
       </c>
       <c r="D14">
-        <v>0.5539884794365653</v>
+        <v>0.1700394391288818</v>
       </c>
       <c r="E14">
-        <v>-0.2113404861287042</v>
+        <v>0.01498083120064118</v>
       </c>
       <c r="F14">
-        <v>0.1226059604521833</v>
+        <v>0.09998548358477775</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Carne de cerdo, costilla</t>
+          <t>Café molido</t>
         </is>
       </c>
       <c r="B15">
         <v>43</v>
       </c>
       <c r="C15">
-        <v>0.05495325990325318</v>
+        <v>-0.2289029766705432</v>
       </c>
       <c r="D15">
-        <v>0.07604458648267645</v>
+        <v>0.5539884794365653</v>
       </c>
       <c r="E15">
-        <v>-0.07463620851349836</v>
+        <v>-0.2113404861287042</v>
       </c>
       <c r="F15">
-        <v>0.04496168085080466</v>
+        <v>0.1226059604521833</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Carne de cerdo, espinazo</t>
+          <t>Carne de cerdo, costilla</t>
         </is>
       </c>
       <c r="B16">
         <v>43</v>
       </c>
       <c r="C16">
-        <v>-0.00377681225580335</v>
+        <v>0.05495325990325318</v>
       </c>
       <c r="D16">
-        <v>0.0748734531129366</v>
+        <v>0.07604458648267645</v>
       </c>
       <c r="E16">
-        <v>-0.08564501475240163</v>
+        <v>-0.07463620851349836</v>
       </c>
       <c r="F16">
-        <v>0.0796196115876194</v>
+        <v>0.04496168085080466</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Carne de res, cadera</t>
+          <t>Carne de cerdo, espinazo</t>
         </is>
       </c>
       <c r="B17">
         <v>43</v>
       </c>
       <c r="C17">
-        <v>0.1274035112876059</v>
+        <v>-0.00377681225580335</v>
       </c>
       <c r="D17">
-        <v>0.08106974988843887</v>
+        <v>0.0748734531129366</v>
       </c>
       <c r="E17">
-        <v>-0.07920942175772759</v>
+        <v>-0.08564501475240163</v>
       </c>
       <c r="F17">
-        <v>0.05994508726260888</v>
+        <v>0.0796196115876194</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Carne de res, costilla</t>
+          <t>Carne de res, cadera</t>
         </is>
       </c>
       <c r="B18">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>-0.1065543104852218</v>
+        <v>0.1274035112876059</v>
       </c>
       <c r="D18">
-        <v>0.05404099170855672</v>
+        <v>0.08106974988843887</v>
       </c>
       <c r="E18">
-        <v>0.1270798039187016</v>
+        <v>-0.07920942175772759</v>
       </c>
       <c r="F18">
-        <v>0.04601043652714706</v>
+        <v>0.05994508726260888</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Carne de res, falda</t>
+          <t>Carne de res, costilla</t>
         </is>
       </c>
       <c r="B19">
         <v>43</v>
       </c>
       <c r="C19">
-        <v>0.2457341378217778</v>
+        <v>-0.1065543104852218</v>
       </c>
       <c r="D19">
-        <v>0.1445313219062649</v>
+        <v>0.05404099170855672</v>
       </c>
       <c r="E19">
-        <v>-0.1056337398142926</v>
+        <v>0.1270798039187016</v>
       </c>
       <c r="F19">
-        <v>0.0724087110853374</v>
+        <v>0.04601043652714706</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Carne de res, lomo de brazo</t>
+          <t>Carne de res, falda</t>
         </is>
       </c>
       <c r="B20">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C20">
-        <v>-0.01499692757234425</v>
+        <v>0.2457341378217778</v>
       </c>
       <c r="D20">
-        <v>0.0843800741129777</v>
+        <v>0.1445313219062649</v>
       </c>
       <c r="E20">
-        <v>-0.3675905603888516</v>
+        <v>-0.1056337398142926</v>
       </c>
       <c r="F20">
-        <v>0.1292128001880728</v>
+        <v>0.0724087110853374</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Carne de res, lomo fino</t>
+          <t>Carne de res, lomo de brazo</t>
         </is>
       </c>
       <c r="B21">
         <v>29</v>
       </c>
       <c r="C21">
-        <v>0.04515488586432963</v>
+        <v>-0.01499692757234425</v>
       </c>
       <c r="D21">
-        <v>0.1488001850613598</v>
+        <v>0.0843800741129777</v>
       </c>
       <c r="E21">
-        <v>-0.2432977161033619</v>
+        <v>-0.3675905603888516</v>
       </c>
       <c r="F21">
-        <v>0.113093555931612</v>
+        <v>0.1292128001880728</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Carne de res, pecho</t>
+          <t>Carne de res, lomo fino</t>
         </is>
       </c>
       <c r="B22">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C22">
-        <v>0.08971554783283951</v>
+        <v>0.04515488586432963</v>
       </c>
       <c r="D22">
-        <v>0.06088376797542917</v>
+        <v>0.1488001850613598</v>
       </c>
       <c r="E22">
-        <v>-0.04927702850020302</v>
+        <v>-0.2432977161033619</v>
       </c>
       <c r="F22">
-        <v>0.05171159051982761</v>
+        <v>0.113093555931612</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Carne de res, punta de anca</t>
+          <t>Carne de res, pecho</t>
         </is>
       </c>
       <c r="B23">
         <v>43</v>
       </c>
       <c r="C23">
-        <v>0.09028248352506518</v>
+        <v>0.08971554783283951</v>
       </c>
       <c r="D23">
-        <v>0.06470975402377074</v>
+        <v>0.06088376797542917</v>
       </c>
       <c r="E23">
-        <v>-0.2303989581463935</v>
+        <v>-0.04927702850020302</v>
       </c>
       <c r="F23">
-        <v>0.08745375177389141</v>
+        <v>0.05171159051982761</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cebolla cabezona blanca bogotana</t>
+          <t>Carne de res, punta de anca</t>
         </is>
       </c>
       <c r="B24">
         <v>43</v>
       </c>
       <c r="C24">
-        <v>0.08314446812343251</v>
+        <v>0.09028248352506518</v>
       </c>
       <c r="D24">
-        <v>0.1588861451265989</v>
+        <v>0.06470975402377074</v>
       </c>
       <c r="E24">
-        <v>-0.2812276348689627</v>
+        <v>-0.2303989581463935</v>
       </c>
       <c r="F24">
-        <v>0.08784874262079308</v>
+        <v>0.08745375177389141</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cebolla cabezona blanca pastusa</t>
+          <t>Cebolla cabezona blanca bogotana</t>
         </is>
       </c>
       <c r="B25">
         <v>43</v>
       </c>
       <c r="C25">
-        <v>-0.005134729405238663</v>
+        <v>0.08314446812343251</v>
       </c>
       <c r="D25">
-        <v>0.1196423386590215</v>
+        <v>0.1588861451265989</v>
       </c>
       <c r="E25">
-        <v>-0.1447675796055712</v>
+        <v>-0.2812276348689627</v>
       </c>
       <c r="F25">
-        <v>0.06988971568748152</v>
+        <v>0.08784874262079308</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Cebolla cabezona roja importada</t>
+          <t>Cebolla cabezona blanca pastusa</t>
         </is>
       </c>
       <c r="B26">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C26">
-        <v>0.7860692185949717</v>
+        <v>-0.005134729405238663</v>
       </c>
       <c r="D26">
-        <v>0.4833020863634376</v>
+        <v>0.1196423386590215</v>
       </c>
       <c r="E26">
-        <v>0.001626562533793709</v>
+        <v>-0.1447675796055712</v>
       </c>
       <c r="F26">
-        <v>0.1367553147733544</v>
+        <v>0.06988971568748152</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Curuba</t>
+          <t>Cebolla cabezona roja importada</t>
         </is>
       </c>
       <c r="B27">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C27">
-        <v>-0.03184255325002366</v>
+        <v>0.7860692185949717</v>
       </c>
       <c r="D27">
-        <v>0.100565995485572</v>
+        <v>0.4833020863634376</v>
       </c>
       <c r="E27">
-        <v>0.03963378613939558</v>
+        <v>0.001626562533793709</v>
       </c>
       <c r="F27">
-        <v>0.06820682203742313</v>
+        <v>0.1367553147733544</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fríjol verde cargamanto</t>
+          <t>Curuba</t>
         </is>
       </c>
       <c r="B28">
         <v>43</v>
       </c>
       <c r="C28">
-        <v>0.1506587766394918</v>
+        <v>-0.03184255325002366</v>
       </c>
       <c r="D28">
-        <v>0.1936089145720522</v>
+        <v>0.100565995485572</v>
       </c>
       <c r="E28">
-        <v>-0.2070249287746323</v>
+        <v>0.03963378613939558</v>
       </c>
       <c r="F28">
-        <v>0.09433411496072601</v>
+        <v>0.06820682203742313</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Habichuela</t>
+          <t>Fríjol verde cargamanto</t>
         </is>
       </c>
       <c r="B29">
         <v>43</v>
       </c>
       <c r="C29">
-        <v>0.9942504405361602</v>
+        <v>0.1506587766394918</v>
       </c>
       <c r="D29">
-        <v>0.3471474917503504</v>
+        <v>0.1936089145720522</v>
       </c>
       <c r="E29">
-        <v>-0.3210083903643697</v>
+        <v>-0.2070249287746323</v>
       </c>
       <c r="F29">
-        <v>0.155934841825042</v>
+        <v>0.09433411496072601</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Harina de trigo</t>
+          <t>Habichuela</t>
         </is>
       </c>
       <c r="B30">
         <v>43</v>
       </c>
       <c r="C30">
-        <v>-0.3619277264799332</v>
+        <v>0.9942504405361602</v>
       </c>
       <c r="D30">
-        <v>0.222158615426469</v>
+        <v>0.3471474917503504</v>
       </c>
       <c r="E30">
-        <v>-0.4035519350057492</v>
+        <v>-0.3210083903643697</v>
       </c>
       <c r="F30">
-        <v>0.08779756991632137</v>
+        <v>0.155934841825042</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Harina precocida de maíz</t>
+          <t>Harina de trigo</t>
         </is>
       </c>
       <c r="B31">
         <v>43</v>
       </c>
       <c r="C31">
-        <v>-0.07752684175809539</v>
+        <v>-0.3619277264799332</v>
       </c>
       <c r="D31">
-        <v>0.159271270057861</v>
+        <v>0.222158615426469</v>
       </c>
       <c r="E31">
-        <v>-0.1314725241500146</v>
+        <v>-0.4035519350057492</v>
       </c>
       <c r="F31">
-        <v>0.04425001219209412</v>
+        <v>0.08779756991632137</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Huevo blanco extra</t>
+          <t>Harina precocida de maíz</t>
         </is>
       </c>
       <c r="B32">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C32">
-        <v>0.4649879874664523</v>
+        <v>-0.07752684175809539</v>
       </c>
       <c r="D32">
-        <v>0.1790486734155534</v>
+        <v>0.159271270057861</v>
       </c>
       <c r="E32">
-        <v>-0.3705140177644053</v>
+        <v>-0.1314725241500146</v>
       </c>
       <c r="F32">
-        <v>0.2231961495146481</v>
+        <v>0.04425001219209412</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Huevo rojo A</t>
+          <t>Huevo blanco extra</t>
         </is>
       </c>
       <c r="B33">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C33">
-        <v>0.2580060237822501</v>
+        <v>0.4649879874664523</v>
       </c>
       <c r="D33">
-        <v>0.09060594859875142</v>
+        <v>0.1790486734155534</v>
       </c>
       <c r="E33">
-        <v>-0.2031068315153251</v>
+        <v>-0.3705140177644053</v>
       </c>
       <c r="F33">
-        <v>0.106238970629873</v>
+        <v>0.2231961495146481</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Huevo rojo AA</t>
+          <t>Huevo rojo A</t>
         </is>
       </c>
       <c r="B34">
         <v>43</v>
       </c>
       <c r="C34">
-        <v>0.2235948856020057</v>
+        <v>0.2580060237822501</v>
       </c>
       <c r="D34">
-        <v>0.08238690943163283</v>
+        <v>0.09060594859875142</v>
       </c>
       <c r="E34">
-        <v>-0.2799585639660429</v>
+        <v>-0.2031068315153251</v>
       </c>
       <c r="F34">
-        <v>0.1003341904462021</v>
+        <v>0.106238970629873</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Huevo rojo extra</t>
+          <t>Huevo rojo AA</t>
         </is>
       </c>
       <c r="B35">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C35">
-        <v>-0.1693733250124617</v>
+        <v>0.2235948856020057</v>
       </c>
       <c r="D35">
-        <v>0.2175513650691775</v>
+        <v>0.08238690943163283</v>
       </c>
       <c r="E35">
-        <v>-0.2545353095540115</v>
+        <v>-0.2799585639660429</v>
       </c>
       <c r="F35">
-        <v>0.07566910273658588</v>
+        <v>0.1003341904462021</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Leche en polvo</t>
+          <t>Huevo rojo extra</t>
         </is>
       </c>
       <c r="B36">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C36">
-        <v>0.6491299820007421</v>
+        <v>-0.1693733250124617</v>
       </c>
       <c r="D36">
-        <v>0.2773782571302324</v>
+        <v>0.2175513650691775</v>
       </c>
       <c r="E36">
-        <v>-0.1768110170595172</v>
+        <v>-0.2545353095540115</v>
       </c>
       <c r="F36">
-        <v>0.1251849107618112</v>
+        <v>0.07566910273658588</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Lechuga Batavia</t>
+          <t>Leche en polvo</t>
         </is>
       </c>
       <c r="B37">
         <v>43</v>
       </c>
       <c r="C37">
-        <v>0.04553374970634821</v>
+        <v>0.6491299820007421</v>
       </c>
       <c r="D37">
-        <v>0.3399887024179225</v>
+        <v>0.2773782571302324</v>
       </c>
       <c r="E37">
-        <v>-0.2348235141816322</v>
+        <v>-0.1768110170595172</v>
       </c>
       <c r="F37">
-        <v>0.1321549645676513</v>
+        <v>0.1251849107618112</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Lenteja importada</t>
+          <t>Lechuga Batavia</t>
         </is>
       </c>
       <c r="B38">
         <v>43</v>
       </c>
       <c r="C38">
-        <v>0.6745798075859142</v>
+        <v>0.04553374970634821</v>
       </c>
       <c r="D38">
-        <v>0.1322958724573638</v>
+        <v>0.3399887024179225</v>
       </c>
       <c r="E38">
-        <v>-0.1606762677944679</v>
+        <v>-0.2348235141816322</v>
       </c>
       <c r="F38">
-        <v>0.07844349360259353</v>
+        <v>0.1321549645676513</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Limón Tahití</t>
+          <t>Lenteja importada</t>
         </is>
       </c>
       <c r="B39">
         <v>43</v>
       </c>
       <c r="C39">
-        <v>-0.05231273970534438</v>
+        <v>0.6745798075859142</v>
       </c>
       <c r="D39">
-        <v>0.3222435127322839</v>
+        <v>0.1322958724573638</v>
       </c>
       <c r="E39">
-        <v>-0.3389226931032644</v>
+        <v>-0.1606762677944679</v>
       </c>
       <c r="F39">
-        <v>0.1382310673519112</v>
+        <v>0.07844349360259353</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Lomitos de atún en lata</t>
+          <t>Limón Tahití</t>
         </is>
       </c>
       <c r="B40">
         <v>43</v>
       </c>
       <c r="C40">
-        <v>-0.2640305436166399</v>
+        <v>-0.05231273970534438</v>
       </c>
       <c r="D40">
-        <v>0.2769798844372182</v>
+        <v>0.3222435127322839</v>
       </c>
       <c r="E40">
-        <v>-0.271782293681277</v>
+        <v>-0.3389226931032644</v>
       </c>
       <c r="F40">
-        <v>0.08919455298561454</v>
+        <v>0.1382310673519112</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Lulo</t>
+          <t>Lomitos de atún en lata</t>
         </is>
       </c>
       <c r="B41">
         <v>43</v>
       </c>
       <c r="C41">
-        <v>-0.1751256578330242</v>
+        <v>-0.2640305436166399</v>
       </c>
       <c r="D41">
-        <v>0.3686279684436614</v>
+        <v>0.2769798844372182</v>
       </c>
       <c r="E41">
-        <v>-0.4910648583756289</v>
+        <v>-0.271782293681277</v>
       </c>
       <c r="F41">
-        <v>0.1095102200856041</v>
+        <v>0.08919455298561454</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Mango común</t>
+          <t>Lulo</t>
         </is>
       </c>
       <c r="B42">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C42">
-        <v>0.4591059970308488</v>
+        <v>-0.1751256578330242</v>
       </c>
       <c r="D42">
-        <v>0.2863727353713633</v>
+        <v>0.3686279684436614</v>
       </c>
       <c r="E42">
-        <v>-0.2499250563814867</v>
+        <v>-0.4910648583756289</v>
       </c>
       <c r="F42">
-        <v>0.1189791225626951</v>
+        <v>0.1095102200856041</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Manzana roja importada</t>
+          <t>Mango común</t>
         </is>
       </c>
       <c r="B43">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C43">
-        <v>-0.1400578477312865</v>
+        <v>0.4591059970308488</v>
       </c>
       <c r="D43">
-        <v>0.2560404211291141</v>
+        <v>0.2863727353713633</v>
       </c>
       <c r="E43">
-        <v>-0.198867800903517</v>
+        <v>-0.2499250563814867</v>
       </c>
       <c r="F43">
-        <v>0.08066936915007784</v>
+        <v>0.1189791225626951</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Manzana royal gala importada</t>
+          <t>Manzana roja importada</t>
         </is>
       </c>
       <c r="B44">
         <v>43</v>
       </c>
       <c r="C44">
-        <v>-0.08204466091779285</v>
+        <v>-0.1400578477312865</v>
       </c>
       <c r="D44">
-        <v>0.2560528609277847</v>
+        <v>0.2560404211291141</v>
       </c>
       <c r="E44">
-        <v>-0.1705799643747908</v>
+        <v>-0.198867800903517</v>
       </c>
       <c r="F44">
-        <v>0.07562895473285948</v>
+        <v>0.08066936915007784</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Manzana verde importada</t>
+          <t>Manzana royal gala importada</t>
         </is>
       </c>
       <c r="B45">
         <v>43</v>
       </c>
       <c r="C45">
-        <v>-0.0001499901631310391</v>
+        <v>-0.08204466091779285</v>
       </c>
       <c r="D45">
-        <v>0.1765198384602679</v>
+        <v>0.2560528609277847</v>
       </c>
       <c r="E45">
-        <v>-0.07369472157517878</v>
+        <v>-0.1705799643747908</v>
       </c>
       <c r="F45">
-        <v>0.06757078150701278</v>
+        <v>0.07562895473285948</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Maracuyá</t>
+          <t>Manzana verde importada</t>
         </is>
       </c>
       <c r="B46">
         <v>43</v>
       </c>
       <c r="C46">
-        <v>0.02494022318986189</v>
+        <v>-0.0001499901631310391</v>
       </c>
       <c r="D46">
-        <v>0.4483931419419875</v>
+        <v>0.1765198384602679</v>
       </c>
       <c r="E46">
-        <v>-0.5182066402025073</v>
+        <v>-0.07369472157517878</v>
       </c>
       <c r="F46">
-        <v>0.1557062092856041</v>
+        <v>0.06757078150701278</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Margarina</t>
+          <t>Maracuyá</t>
         </is>
       </c>
       <c r="B47">
         <v>43</v>
       </c>
       <c r="C47">
-        <v>-0.1962642518934829</v>
+        <v>0.02494022318986189</v>
       </c>
       <c r="D47">
-        <v>0.4067988187553233</v>
+        <v>0.4483931419419875</v>
       </c>
       <c r="E47">
-        <v>-0.02576739669350371</v>
+        <v>-0.5182066402025073</v>
       </c>
       <c r="F47">
-        <v>0.03971816514298655</v>
+        <v>0.1557062092856041</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Mora de Castilla</t>
+          <t>Margarina</t>
         </is>
       </c>
       <c r="B48">
         <v>43</v>
       </c>
       <c r="C48">
-        <v>-0.3641121932726049</v>
+        <v>-0.1962642518934829</v>
       </c>
       <c r="D48">
-        <v>0.4842849387219799</v>
+        <v>0.4067988187553233</v>
       </c>
       <c r="E48">
-        <v>-0.314874683767124</v>
+        <v>-0.02576739669350371</v>
       </c>
       <c r="F48">
-        <v>0.1172670689767661</v>
+        <v>0.03971816514298655</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Naranja Sweet</t>
+          <t>Mora de Castilla</t>
         </is>
       </c>
       <c r="B49">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C49">
-        <v>0.9830980575431547</v>
+        <v>-0.3641121932726049</v>
       </c>
       <c r="D49">
-        <v>0.6104658869806245</v>
+        <v>0.4842849387219799</v>
       </c>
       <c r="E49">
-        <v>-0.05581384973594287</v>
+        <v>-0.314874683767124</v>
       </c>
       <c r="F49">
-        <v>0.1323198756913573</v>
+        <v>0.1172670689767661</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Naranja Valencia</t>
+          <t>Naranja Sweet</t>
         </is>
       </c>
       <c r="B50">
         <v>34</v>
       </c>
       <c r="C50">
-        <v>0.2544360435705746</v>
+        <v>0.9830980575431547</v>
       </c>
       <c r="D50">
-        <v>0.1863587715494569</v>
+        <v>0.6104658869806245</v>
       </c>
       <c r="E50">
-        <v>-0.2749065260345376</v>
+        <v>-0.05581384973594287</v>
       </c>
       <c r="F50">
-        <v>0.1381671674944239</v>
+        <v>0.1323198756913573</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Panela redonda morena</t>
+          <t>Naranja Valencia</t>
         </is>
       </c>
       <c r="B51">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C51">
-        <v>0.04443464298938042</v>
+        <v>0.2544360435705746</v>
       </c>
       <c r="D51">
-        <v>0.0559815053289825</v>
+        <v>0.1863587715494569</v>
       </c>
       <c r="E51">
-        <v>-0.2352970684885074</v>
+        <v>-0.2749065260345376</v>
       </c>
       <c r="F51">
-        <v>0.1119697699692974</v>
+        <v>0.1381671674944239</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Papa Betina</t>
+          <t>Panela redonda morena</t>
         </is>
       </c>
       <c r="B52">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C52">
-        <v>0.7328898660390254</v>
+        <v>0.04443464298938042</v>
       </c>
       <c r="D52">
-        <v>0.4151385929840614</v>
+        <v>0.0559815053289825</v>
       </c>
       <c r="E52">
-        <v>-0.07033299851386442</v>
+        <v>-0.2352970684885074</v>
       </c>
       <c r="F52">
-        <v>0.1279419507369643</v>
+        <v>0.1119697699692974</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Papa capira</t>
+          <t>Papa Betina</t>
         </is>
       </c>
       <c r="B53">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C53">
-        <v>-0.064188028838366</v>
+        <v>0.7328898660390254</v>
       </c>
       <c r="D53">
-        <v>0.2352220788190691</v>
+        <v>0.4151385929840614</v>
       </c>
       <c r="E53">
-        <v>-0.355152601187765</v>
+        <v>-0.07033299851386442</v>
       </c>
       <c r="F53">
-        <v>0.1045899010521322</v>
+        <v>0.1279419507369643</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Papa criolla limpia</t>
+          <t>Papa capira</t>
         </is>
       </c>
       <c r="B54">
         <v>43</v>
       </c>
       <c r="C54">
-        <v>-0.06144885326545892</v>
+        <v>-0.064188028838366</v>
       </c>
       <c r="D54">
-        <v>0.3355830353918228</v>
+        <v>0.2352220788190691</v>
       </c>
       <c r="E54">
-        <v>-0.2926507061753636</v>
+        <v>-0.355152601187765</v>
       </c>
       <c r="F54">
-        <v>0.1062220377912665</v>
+        <v>0.1045899010521322</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Papa criolla sucia</t>
+          <t>Papa criolla limpia</t>
         </is>
       </c>
       <c r="B55">
         <v>43</v>
       </c>
       <c r="C55">
-        <v>-0.1001529981376999</v>
+        <v>-0.06144885326545892</v>
       </c>
       <c r="D55">
-        <v>0.2830507997367157</v>
+        <v>0.3355830353918228</v>
       </c>
       <c r="E55">
-        <v>-0.2841928494617303</v>
+        <v>-0.2926507061753636</v>
       </c>
       <c r="F55">
-        <v>0.1019089477300463</v>
+        <v>0.1062220377912665</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Papa nevada</t>
+          <t>Papa criolla sucia</t>
         </is>
       </c>
       <c r="B56">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C56">
-        <v>0.07964058113342028</v>
+        <v>-0.1001529981376999</v>
       </c>
       <c r="D56">
-        <v>0.309204621416649</v>
+        <v>0.2830507997367157</v>
       </c>
       <c r="E56">
-        <v>-0.3349971784395134</v>
+        <v>-0.2841928494617303</v>
       </c>
       <c r="F56">
-        <v>0.1164344729402109</v>
+        <v>0.1019089477300463</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Papa parda pastusa</t>
+          <t>Papa nevada</t>
         </is>
       </c>
       <c r="B57">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C57">
-        <v>0.08222935283833596</v>
+        <v>0.07964058113342028</v>
       </c>
       <c r="D57">
-        <v>0.2270996439823102</v>
+        <v>0.309204621416649</v>
       </c>
       <c r="E57">
-        <v>-0.3434797629844627</v>
+        <v>-0.3349971784395134</v>
       </c>
       <c r="F57">
-        <v>0.1112264838576996</v>
+        <v>0.1164344729402109</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Papa suprema</t>
+          <t>Papa parda pastusa</t>
         </is>
       </c>
       <c r="B58">
         <v>43</v>
       </c>
       <c r="C58">
-        <v>0.03093389266660502</v>
+        <v>0.08222935283833596</v>
       </c>
       <c r="D58">
-        <v>0.2180659341051304</v>
+        <v>0.2270996439823102</v>
       </c>
       <c r="E58">
-        <v>-0.303517272500831</v>
+        <v>-0.3434797629844627</v>
       </c>
       <c r="F58">
-        <v>0.102566342957405</v>
+        <v>0.1112264838576996</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Papa única</t>
+          <t>Papa suprema</t>
         </is>
       </c>
       <c r="B59">
         <v>43</v>
       </c>
       <c r="C59">
-        <v>-0.01430004336040729</v>
+        <v>0.03093389266660502</v>
       </c>
       <c r="D59">
-        <v>0.198260191060068</v>
+        <v>0.2180659341051304</v>
       </c>
       <c r="E59">
-        <v>-0.3231201884547407</v>
+        <v>-0.303517272500831</v>
       </c>
       <c r="F59">
-        <v>0.1051975516264732</v>
+        <v>0.102566342957405</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Pastas alimenticias</t>
+          <t>Papa única</t>
         </is>
       </c>
       <c r="B60">
         <v>43</v>
       </c>
       <c r="C60">
-        <v>-0.5116456260196081</v>
+        <v>-0.01430004336040729</v>
       </c>
       <c r="D60">
-        <v>0.343358485625076</v>
+        <v>0.198260191060068</v>
       </c>
       <c r="E60">
-        <v>-0.2141428530665401</v>
+        <v>-0.3231201884547407</v>
       </c>
       <c r="F60">
-        <v>0.06650966625030598</v>
+        <v>0.1051975516264732</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Pechuga de pollo</t>
+          <t>Pastas alimenticias</t>
         </is>
       </c>
       <c r="B61">
         <v>43</v>
       </c>
       <c r="C61">
-        <v>0.2993808566115694</v>
+        <v>-0.5116456260196081</v>
       </c>
       <c r="D61">
-        <v>0.1974418248175343</v>
+        <v>0.343358485625076</v>
       </c>
       <c r="E61">
-        <v>-0.3373105976781323</v>
+        <v>-0.2141428530665401</v>
       </c>
       <c r="F61">
-        <v>0.1504646573866137</v>
+        <v>0.06650966625030598</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Piña gold</t>
+          <t>Pechuga de pollo</t>
         </is>
       </c>
       <c r="B62">
         <v>43</v>
       </c>
       <c r="C62">
-        <v>0.5980938178991757</v>
+        <v>0.2993808566115694</v>
       </c>
       <c r="D62">
-        <v>0.2924549229977983</v>
+        <v>0.1974418248175343</v>
       </c>
       <c r="E62">
-        <v>-0.04790202833969454</v>
+        <v>-0.3373105976781323</v>
       </c>
       <c r="F62">
-        <v>0.08151627528002557</v>
+        <v>0.1504646573866137</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Piña manzana</t>
+          <t>Piña gold</t>
         </is>
       </c>
       <c r="B63">
         <v>43</v>
       </c>
       <c r="C63">
-        <v>0.5674113641796367</v>
+        <v>0.5980938178991757</v>
       </c>
       <c r="D63">
-        <v>0.4397525000955106</v>
+        <v>0.2924549229977983</v>
       </c>
       <c r="E63">
-        <v>-0.206196583804032</v>
+        <v>-0.04790202833969454</v>
       </c>
       <c r="F63">
-        <v>0.1160195886683249</v>
+        <v>0.08151627528002557</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Pollo entero congelado sin vísceras</t>
+          <t>Piña manzana</t>
         </is>
       </c>
       <c r="B64">
         <v>43</v>
       </c>
       <c r="C64">
-        <v>-0.04572763545151226</v>
+        <v>0.5674113641796367</v>
       </c>
       <c r="D64">
-        <v>0.1491444786724677</v>
+        <v>0.4397525000955106</v>
       </c>
       <c r="E64">
-        <v>0.1241604435791027</v>
+        <v>-0.206196583804032</v>
       </c>
       <c r="F64">
-        <v>0.08878539839895615</v>
+        <v>0.1160195886683249</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Queso campesino</t>
+          <t>Pollo entero congelado sin vísceras</t>
         </is>
       </c>
       <c r="B65">
         <v>43</v>
       </c>
       <c r="C65">
-        <v>0.04535357015134745</v>
+        <v>-0.04572763545151226</v>
       </c>
       <c r="D65">
-        <v>0.09618021965644882</v>
+        <v>0.1491444786724677</v>
       </c>
       <c r="E65">
-        <v>-0.0368456344553504</v>
+        <v>0.1241604435791027</v>
       </c>
       <c r="F65">
-        <v>0.05837011220481401</v>
+        <v>0.08878539839895615</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Repollo blanco</t>
+          <t>Queso campesino</t>
         </is>
       </c>
       <c r="B66">
         <v>43</v>
       </c>
       <c r="C66">
-        <v>-0.2134646247894816</v>
+        <v>0.04535357015134745</v>
       </c>
       <c r="D66">
-        <v>0.1092245337602612</v>
+        <v>0.09618021965644882</v>
       </c>
       <c r="E66">
-        <v>-0.2247941819449661</v>
+        <v>-0.0368456344553504</v>
       </c>
       <c r="F66">
-        <v>0.08036259748695825</v>
+        <v>0.05837011220481401</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sal yodada</t>
+          <t>Repollo blanco</t>
         </is>
       </c>
       <c r="B67">
         <v>43</v>
       </c>
       <c r="C67">
-        <v>0.2079817344786119</v>
+        <v>-0.2134646247894816</v>
       </c>
       <c r="D67">
-        <v>0.2912578509869146</v>
+        <v>0.1092245337602612</v>
       </c>
       <c r="E67">
-        <v>0.02623799087417436</v>
+        <v>-0.2247941819449661</v>
       </c>
       <c r="F67">
-        <v>0.04230212858472019</v>
+        <v>0.08036259748695825</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Tilapia roja entera congelada</t>
+          <t>Sal yodada</t>
         </is>
       </c>
       <c r="B68">
         <v>43</v>
       </c>
       <c r="C68">
-        <v>0.1645898296637307</v>
+        <v>0.2079817344786119</v>
       </c>
       <c r="D68">
-        <v>0.09502826577059865</v>
+        <v>0.2912578509869146</v>
       </c>
       <c r="E68">
-        <v>-0.05406567659856615</v>
+        <v>0.02623799087417436</v>
       </c>
       <c r="F68">
-        <v>0.08725980158538728</v>
+        <v>0.04230212858472019</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Tomate de árbol</t>
+          <t>Tilapia roja entera congelada</t>
         </is>
       </c>
       <c r="B69">
         <v>43</v>
       </c>
       <c r="C69">
-        <v>0.2569923875162736</v>
+        <v>0.1645898296637307</v>
       </c>
       <c r="D69">
-        <v>0.4017241849503148</v>
+        <v>0.09502826577059865</v>
       </c>
       <c r="E69">
-        <v>-0.4156970722795639</v>
+        <v>-0.05406567659856615</v>
       </c>
       <c r="F69">
-        <v>0.1294966280760473</v>
+        <v>0.08725980158538728</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Tomate larga vida</t>
+          <t>Tomate de árbol</t>
         </is>
       </c>
       <c r="B70">
         <v>43</v>
       </c>
       <c r="C70">
-        <v>0.03867564846095201</v>
+        <v>0.2569923875162736</v>
       </c>
       <c r="D70">
-        <v>0.6113288902855512</v>
+        <v>0.4017241849503148</v>
       </c>
       <c r="E70">
-        <v>-0.4948238549267797</v>
+        <v>-0.4156970722795639</v>
       </c>
       <c r="F70">
-        <v>0.1632996659926754</v>
+        <v>0.1294966280760473</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>Tomate larga vida</t>
+        </is>
+      </c>
+      <c r="B71">
+        <v>43</v>
+      </c>
+      <c r="C71">
+        <v>0.03867564846095201</v>
+      </c>
+      <c r="D71">
+        <v>0.6113288902855512</v>
+      </c>
+      <c r="E71">
+        <v>-0.4948238549267797</v>
+      </c>
+      <c r="F71">
+        <v>0.1632996659926754</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
           <t>Zanahoria</t>
         </is>
       </c>
-      <c r="B71">
-        <v>43</v>
-      </c>
-      <c r="C71">
+      <c r="B72">
+        <v>43</v>
+      </c>
+      <c r="C72">
         <v>-0.07399739385217569</v>
       </c>
-      <c r="D71">
+      <c r="D72">
         <v>0.1802923305117942</v>
       </c>
-      <c r="E71">
+      <c r="E72">
         <v>-0.2022357428546255</v>
       </c>
-      <c r="F71">
+      <c r="F72">
         <v>0.1066641310278549</v>
       </c>
     </row>
@@ -3972,12 +4022,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>RMSE_log</t>
+          <t>RMSE_dlog</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MAPE_level</t>
+          <t>MAPE_dlog</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -4006,10 +4056,10 @@
         <v>19</v>
       </c>
       <c r="C2">
-        <v>0.2128294922982294</v>
+        <v>0.0887498206826588</v>
       </c>
       <c r="D2">
-        <v>15.30442513150831</v>
+        <v>0.8589375364887319</v>
       </c>
       <c r="E2">
         <v>0.01</v>
@@ -4031,10 +4081,10 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>0.2414461458811213</v>
+        <v>0.1048287507753483</v>
       </c>
       <c r="D3">
-        <v>21.27754747727128</v>
+        <v>4.463510784017042</v>
       </c>
       <c r="E3">
         <v>0.09006454713803308</v>
@@ -4056,10 +4106,10 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>0.6494499169706224</v>
+        <v>0.06042402979528293</v>
       </c>
       <c r="D4">
-        <v>87.38826193540098</v>
+        <v>0.9132963685966815</v>
       </c>
       <c r="E4">
         <v>0.1</v>
@@ -4081,10 +4131,10 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>0.1904877506476488</v>
+        <v>0.03077830565067125</v>
       </c>
       <c r="D5">
-        <v>13.82449697841676</v>
+        <v>41.93995661493048</v>
       </c>
       <c r="E5">
         <v>0.02475174589327518</v>
@@ -4106,10 +4156,10 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>0.6581499451410312</v>
+        <v>0.1797970805451928</v>
       </c>
       <c r="D6">
-        <v>35.5002966912577</v>
+        <v>1.418013627517699</v>
       </c>
       <c r="E6">
         <v>0.04458830338500159</v>
@@ -4131,10 +4181,10 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>0.07059745123810937</v>
+        <v>0.01901561722818568</v>
       </c>
       <c r="D7">
-        <v>6.011678375173051</v>
+        <v>1.205084546777455</v>
       </c>
       <c r="E7">
         <v>0.02009440542009516</v>
@@ -4156,10 +4206,10 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>0.04420213360477595</v>
+        <v>0.02596066227329622</v>
       </c>
       <c r="D8">
-        <v>3.813090586309551</v>
+        <v>1.319180740263441</v>
       </c>
       <c r="E8">
         <v>0.1</v>
@@ -4181,10 +4231,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>0.06950607590421679</v>
+        <v>0.02505535782103926</v>
       </c>
       <c r="D9">
-        <v>5.655944338771406</v>
+        <v>0.9548960524889403</v>
       </c>
       <c r="E9">
         <v>0.09937708839503831</v>
@@ -4206,10 +4256,10 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>0.1579663403773205</v>
+        <v>0.01567015777643655</v>
       </c>
       <c r="D10">
-        <v>13.43862926520859</v>
+        <v>4.027795588343589</v>
       </c>
       <c r="E10">
         <v>0.1</v>
@@ -4231,10 +4281,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>0.2036965514310114</v>
+        <v>0.0241230877859916</v>
       </c>
       <c r="D11">
-        <v>16.29262490415497</v>
+        <v>24.2199102668562</v>
       </c>
       <c r="E11">
         <v>0.1</v>
@@ -4256,10 +4306,10 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>0.5124443900913128</v>
+        <v>0.05655098429452197</v>
       </c>
       <c r="D12">
-        <v>34.75957712996499</v>
+        <v>5.133975216375249</v>
       </c>
       <c r="E12">
         <v>0.07795475885835604</v>
@@ -4281,10 +4331,10 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>0.2344446920776986</v>
+        <v>0.0356579189998326</v>
       </c>
       <c r="D13">
-        <v>24.20663136011417</v>
+        <v>3.302453745784667</v>
       </c>
       <c r="E13">
         <v>0.03386359526249339</v>
@@ -4306,10 +4356,10 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>0.05263649552814536</v>
+        <v>0.01109483514030297</v>
       </c>
       <c r="D14">
-        <v>4.138734275285023</v>
+        <v>2.374324163624364</v>
       </c>
       <c r="E14">
         <v>0.04252625889757883</v>
@@ -4331,10 +4381,10 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>0.1838564576951961</v>
+        <v>0.02133174033628664</v>
       </c>
       <c r="D15">
-        <v>15.63431392715695</v>
+        <v>1.525724152235544</v>
       </c>
       <c r="E15">
         <v>0.1</v>
@@ -4356,10 +4406,10 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>0.2495363773918173</v>
+        <v>0.025334250825434</v>
       </c>
       <c r="D16">
-        <v>19.99095876780319</v>
+        <v>2.334006807429599</v>
       </c>
       <c r="E16">
         <v>0.04265653909537023</v>
@@ -4381,10 +4431,10 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>0.05345171972594254</v>
+        <v>0.01556790046971099</v>
       </c>
       <c r="D17">
-        <v>4.145018573588696</v>
+        <v>2.483325368925652</v>
       </c>
       <c r="E17">
         <v>0.1</v>
@@ -4406,10 +4456,10 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>0.4655277451719843</v>
+        <v>0.04459231850456972</v>
       </c>
       <c r="D18">
-        <v>54.35923043028501</v>
+        <v>6.38981159739757</v>
       </c>
       <c r="E18">
         <v>0.1</v>
@@ -4431,10 +4481,10 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.08980264308508652</v>
+        <v>0.01737526597808293</v>
       </c>
       <c r="D19">
-        <v>7.474881608726962</v>
+        <v>2.941154386362389</v>
       </c>
       <c r="E19">
         <v>0.07473160027352362</v>
@@ -4456,10 +4506,10 @@
         <v>13</v>
       </c>
       <c r="C20">
-        <v>0.2007807832643683</v>
+        <v>0.04718410383218281</v>
       </c>
       <c r="D20">
-        <v>12.54183835527354</v>
+        <v>0.732149617874439</v>
       </c>
       <c r="E20">
         <v>0.07839305095690463</v>
@@ -4481,10 +4531,10 @@
         <v>13</v>
       </c>
       <c r="C21">
-        <v>0.04540789591380891</v>
+        <v>0.01785255501758407</v>
       </c>
       <c r="D21">
-        <v>3.225718723279795</v>
+        <v>0.7542123748768969</v>
       </c>
       <c r="E21">
         <v>0.1</v>
@@ -4506,10 +4556,10 @@
         <v>19</v>
       </c>
       <c r="C22">
-        <v>0.01949733852416384</v>
+        <v>0.01318296454998669</v>
       </c>
       <c r="D22">
-        <v>1.525243769355273</v>
+        <v>1.971838926071339</v>
       </c>
       <c r="E22">
         <v>0.1</v>
@@ -4531,10 +4581,10 @@
         <v>19</v>
       </c>
       <c r="C23">
-        <v>0.1621513596501045</v>
+        <v>0.02301533613248141</v>
       </c>
       <c r="D23">
-        <v>12.48510272364909</v>
+        <v>4.181761981432262</v>
       </c>
       <c r="E23">
         <v>0.0429720761877088</v>
@@ -4556,10 +4606,10 @@
         <v>19</v>
       </c>
       <c r="C24">
-        <v>0.450511920678893</v>
+        <v>0.2041428650606605</v>
       </c>
       <c r="D24">
-        <v>38.62876628720888</v>
+        <v>0.8707568436190145</v>
       </c>
       <c r="E24">
         <v>0.1</v>
@@ -4581,10 +4631,10 @@
         <v>19</v>
       </c>
       <c r="C25">
-        <v>0.4226433762463037</v>
+        <v>0.2375988412167755</v>
       </c>
       <c r="D25">
-        <v>37.98435293036527</v>
+        <v>0.8774075845557169</v>
       </c>
       <c r="E25">
         <v>0.1</v>
@@ -4606,10 +4656,10 @@
         <v>12</v>
       </c>
       <c r="C26">
-        <v>0.3516539824678701</v>
+        <v>0.2454055446484006</v>
       </c>
       <c r="D26">
-        <v>34.31718504414061</v>
+        <v>1.993541673668278</v>
       </c>
       <c r="E26">
         <v>0.03134989631097322</v>
@@ -4631,10 +4681,10 @@
         <v>19</v>
       </c>
       <c r="C27">
-        <v>0.290740580376493</v>
+        <v>0.05213981129204612</v>
       </c>
       <c r="D27">
-        <v>32.23506305135489</v>
+        <v>5.376367030684207</v>
       </c>
       <c r="E27">
         <v>0.1</v>
@@ -4656,10 +4706,10 @@
         <v>19</v>
       </c>
       <c r="C28">
-        <v>0.1108369711663311</v>
+        <v>0.0627342282265949</v>
       </c>
       <c r="D28">
-        <v>9.558774238240792</v>
+        <v>1.027772276176762</v>
       </c>
       <c r="E28">
         <v>0.064612983695397</v>
@@ -4681,10 +4731,10 @@
         <v>19</v>
       </c>
       <c r="C29">
-        <v>0.2531138549009525</v>
+        <v>0.2605103635293946</v>
       </c>
       <c r="D29">
-        <v>22.87965432961463</v>
+        <v>1.679035740389698</v>
       </c>
       <c r="E29">
         <v>0.1</v>
@@ -4706,10 +4756,10 @@
         <v>19</v>
       </c>
       <c r="C30">
-        <v>0.1142707434046259</v>
+        <v>0.01674254989983407</v>
       </c>
       <c r="D30">
-        <v>8.805178634448193</v>
+        <v>4.823287178318206</v>
       </c>
       <c r="E30">
         <v>0.1</v>
@@ -4731,10 +4781,10 @@
         <v>19</v>
       </c>
       <c r="C31">
-        <v>0.1037516515671989</v>
+        <v>0.0138684497087536</v>
       </c>
       <c r="D31">
-        <v>9.280601289174372</v>
+        <v>3.558607042527245</v>
       </c>
       <c r="E31">
         <v>0.1</v>
@@ -4756,10 +4806,10 @@
         <v>12</v>
       </c>
       <c r="C32">
-        <v>0.0262485657394582</v>
+        <v>0.01062714911481654</v>
       </c>
       <c r="D32">
-        <v>2.111554848950204</v>
+        <v>0.2538449023807415</v>
       </c>
       <c r="E32">
         <v>0.02722637403713198</v>
@@ -4781,10 +4831,10 @@
         <v>19</v>
       </c>
       <c r="C33">
-        <v>0.06978001359272776</v>
+        <v>0.01404309347732028</v>
       </c>
       <c r="D33">
-        <v>6.270187833865267</v>
+        <v>8.762453999521867</v>
       </c>
       <c r="E33">
         <v>0.1</v>
@@ -4806,10 +4856,10 @@
         <v>19</v>
       </c>
       <c r="C34">
-        <v>0.0877263607471914</v>
+        <v>0.0150820060020262</v>
       </c>
       <c r="D34">
-        <v>7.882488721566065</v>
+        <v>10.95804590905031</v>
       </c>
       <c r="E34">
         <v>0.044193174260361</v>
@@ -4831,10 +4881,10 @@
         <v>15</v>
       </c>
       <c r="C35">
-        <v>0.0493605667399402</v>
+        <v>0.01622670944356327</v>
       </c>
       <c r="D35">
-        <v>4.191459195111098</v>
+        <v>19.55844130442513</v>
       </c>
       <c r="E35">
         <v>0.1</v>
@@ -4856,10 +4906,10 @@
         <v>19</v>
       </c>
       <c r="C36">
-        <v>0.02523613879507591</v>
+        <v>0.01282952049028782</v>
       </c>
       <c r="D36">
-        <v>2.269466446691373</v>
+        <v>1.537765993985632</v>
       </c>
       <c r="E36">
         <v>0.1</v>
@@ -4881,10 +4931,10 @@
         <v>19</v>
       </c>
       <c r="C37">
-        <v>0.265417675776335</v>
+        <v>0.1500732960112585</v>
       </c>
       <c r="D37">
-        <v>28.030944080733</v>
+        <v>1.920402974452481</v>
       </c>
       <c r="E37">
         <v>0.07696825438831016</v>
@@ -4906,10 +4956,10 @@
         <v>19</v>
       </c>
       <c r="C38">
-        <v>0.161021894687206</v>
+        <v>0.05030498270477162</v>
       </c>
       <c r="D38">
-        <v>14.01732695776766</v>
+        <v>2.489633147501316</v>
       </c>
       <c r="E38">
         <v>0.1</v>
@@ -4931,10 +4981,10 @@
         <v>19</v>
       </c>
       <c r="C39">
-        <v>0.3342804303381088</v>
+        <v>0.1003185905514766</v>
       </c>
       <c r="D39">
-        <v>20.94455018293001</v>
+        <v>2.439663279584673</v>
       </c>
       <c r="E39">
         <v>0.02322422167395672</v>
@@ -4956,10 +5006,10 @@
         <v>19</v>
       </c>
       <c r="C40">
-        <v>0.1757202543709798</v>
+        <v>0.03015763719158737</v>
       </c>
       <c r="D40">
-        <v>11.54575937582719</v>
+        <v>14.07180242336153</v>
       </c>
       <c r="E40">
         <v>0.03924810656477305</v>
@@ -4981,10 +5031,10 @@
         <v>19</v>
       </c>
       <c r="C41">
-        <v>0.1595018358339945</v>
+        <v>0.1139570127352633</v>
       </c>
       <c r="D41">
-        <v>12.59900577119223</v>
+        <v>0.7464040608217012</v>
       </c>
       <c r="E41">
         <v>0.1</v>
@@ -5006,10 +5056,10 @@
         <v>12</v>
       </c>
       <c r="C42">
-        <v>0.142528815610491</v>
+        <v>0.1567022351782688</v>
       </c>
       <c r="D42">
-        <v>11.11535512134409</v>
+        <v>1.477617748393318</v>
       </c>
       <c r="E42">
         <v>0.01</v>
@@ -5031,10 +5081,10 @@
         <v>19</v>
       </c>
       <c r="C43">
-        <v>0.09194418590284752</v>
+        <v>0.03200867227908809</v>
       </c>
       <c r="D43">
-        <v>7.764664091976398</v>
+        <v>6.449741278925829</v>
       </c>
       <c r="E43">
         <v>0.05881217161386069</v>
@@ -5056,10 +5106,10 @@
         <v>19</v>
       </c>
       <c r="C44">
-        <v>0.04960087100521647</v>
+        <v>0.03103853630408137</v>
       </c>
       <c r="D44">
-        <v>4.365536979914403</v>
+        <v>4.139865367654711</v>
       </c>
       <c r="E44">
         <v>0.04184453604403149</v>
@@ -5081,10 +5131,10 @@
         <v>19</v>
       </c>
       <c r="C45">
-        <v>0.1410790423085301</v>
+        <v>0.03337962939077151</v>
       </c>
       <c r="D45">
-        <v>12.71309972241519</v>
+        <v>8.985012741125974</v>
       </c>
       <c r="E45">
         <v>0.05710597261156318</v>
@@ -5106,10 +5156,10 @@
         <v>19</v>
       </c>
       <c r="C46">
-        <v>0.4986925279274798</v>
+        <v>0.1572355097953278</v>
       </c>
       <c r="D46">
-        <v>29.92845462345938</v>
+        <v>1.982821970016027</v>
       </c>
       <c r="E46">
         <v>0.0627561926772781</v>
@@ -5131,10 +5181,10 @@
         <v>19</v>
       </c>
       <c r="C47">
-        <v>0.09653242654607137</v>
+        <v>0.01202789862910248</v>
       </c>
       <c r="D47">
-        <v>8.220929749779909</v>
+        <v>28.68146557331982</v>
       </c>
       <c r="E47">
         <v>0.1</v>
@@ -5156,10 +5206,10 @@
         <v>19</v>
       </c>
       <c r="C48">
-        <v>0.4050298287337516</v>
+        <v>0.1220379016060427</v>
       </c>
       <c r="D48">
-        <v>26.42558923382692</v>
+        <v>0.7653775097860616</v>
       </c>
       <c r="E48">
         <v>0.1</v>
@@ -5181,10 +5231,10 @@
         <v>16</v>
       </c>
       <c r="C49">
-        <v>0.2933015028562008</v>
+        <v>0.1216034261745414</v>
       </c>
       <c r="D49">
-        <v>29.19215417009203</v>
+        <v>1.803130383936653</v>
       </c>
       <c r="E49">
         <v>0.1</v>
@@ -5206,10 +5256,10 @@
         <v>16</v>
       </c>
       <c r="C50">
-        <v>0.765477633645775</v>
+        <v>0.1276685904872543</v>
       </c>
       <c r="D50">
-        <v>49.44489936420808</v>
+        <v>1.535332487589416</v>
       </c>
       <c r="E50">
         <v>0.1</v>
@@ -5231,10 +5281,10 @@
         <v>19</v>
       </c>
       <c r="C51">
-        <v>0.7800804507595742</v>
+        <v>0.07047062321954772</v>
       </c>
       <c r="D51">
-        <v>46.41182160135887</v>
+        <v>31.8071225786403</v>
       </c>
       <c r="E51">
         <v>0.04754868401978751</v>
@@ -5256,10 +5306,10 @@
         <v>16</v>
       </c>
       <c r="C52">
-        <v>0.8055669136036693</v>
+        <v>0.1467477904927527</v>
       </c>
       <c r="D52">
-        <v>121.1408602516417</v>
+        <v>3.46399173273513</v>
       </c>
       <c r="E52">
         <v>0.04047730619251422</v>
@@ -5281,10 +5331,10 @@
         <v>19</v>
       </c>
       <c r="C53">
-        <v>0.5794097020104855</v>
+        <v>0.1038620949271983</v>
       </c>
       <c r="D53">
-        <v>73.66751945887503</v>
+        <v>3.030214883871787</v>
       </c>
       <c r="E53">
         <v>0.02726037407722231</v>
@@ -5306,10 +5356,10 @@
         <v>19</v>
       </c>
       <c r="C54">
-        <v>0.5071758145417473</v>
+        <v>0.1365200132999471</v>
       </c>
       <c r="D54">
-        <v>62.07616800618685</v>
+        <v>1.80139589240812</v>
       </c>
       <c r="E54">
         <v>0.09001117284971404</v>
@@ -5331,10 +5381,10 @@
         <v>19</v>
       </c>
       <c r="C55">
-        <v>0.3887722559479182</v>
+        <v>0.136508979954681</v>
       </c>
       <c r="D55">
-        <v>42.9211216946191</v>
+        <v>1.738048833251186</v>
       </c>
       <c r="E55">
         <v>0.1</v>
@@ -5356,10 +5406,10 @@
         <v>16</v>
       </c>
       <c r="C56">
-        <v>0.6851991515038108</v>
+        <v>0.1667451684501669</v>
       </c>
       <c r="D56">
-        <v>42.64310666557154</v>
+        <v>2.152126684607571</v>
       </c>
       <c r="E56">
         <v>0.07220655612399775</v>
@@ -5381,10 +5431,10 @@
         <v>19</v>
       </c>
       <c r="C57">
-        <v>0.3476478308007482</v>
+        <v>0.08948419357560965</v>
       </c>
       <c r="D57">
-        <v>35.77853881272382</v>
+        <v>2.685118239308753</v>
       </c>
       <c r="E57">
         <v>0.04573958787930454</v>
@@ -5406,10 +5456,10 @@
         <v>19</v>
       </c>
       <c r="C58">
-        <v>0.4726293422811118</v>
+        <v>0.09587566777140699</v>
       </c>
       <c r="D58">
-        <v>55.55122921015099</v>
+        <v>2.863611895041113</v>
       </c>
       <c r="E58">
         <v>0.05375429714615403</v>
@@ -5431,10 +5481,10 @@
         <v>19</v>
       </c>
       <c r="C59">
-        <v>0.6834334659415727</v>
+        <v>0.1090275188630176</v>
       </c>
       <c r="D59">
-        <v>91.50841677364066</v>
+        <v>3.626592904170608</v>
       </c>
       <c r="E59">
         <v>0.0417794587954782</v>
@@ -5456,10 +5506,10 @@
         <v>19</v>
       </c>
       <c r="C60">
-        <v>0.3839956935755265</v>
+        <v>0.05697865554913501</v>
       </c>
       <c r="D60">
-        <v>21.88393843471255</v>
+        <v>10.79014336259077</v>
       </c>
       <c r="E60">
         <v>0.1</v>
@@ -5481,10 +5531,10 @@
         <v>19</v>
       </c>
       <c r="C61">
-        <v>0.06391731831037097</v>
+        <v>0.01341562586052333</v>
       </c>
       <c r="D61">
-        <v>4.851480068267607</v>
+        <v>3.694262230238044</v>
       </c>
       <c r="E61">
         <v>0.01</v>
@@ -5506,10 +5556,10 @@
         <v>19</v>
       </c>
       <c r="C62">
-        <v>0.08819071797205907</v>
+        <v>0.04891000588879328</v>
       </c>
       <c r="D62">
-        <v>8.328791091883094</v>
+        <v>1.261369528967277</v>
       </c>
       <c r="E62">
         <v>0.1</v>
@@ -5531,10 +5581,10 @@
         <v>19</v>
       </c>
       <c r="C63">
-        <v>0.2353657033903751</v>
+        <v>0.05028431763872948</v>
       </c>
       <c r="D63">
-        <v>24.43628869798718</v>
+        <v>1.460405978724899</v>
       </c>
       <c r="E63">
         <v>0.1</v>
@@ -5556,10 +5606,10 @@
         <v>19</v>
       </c>
       <c r="C64">
-        <v>0.08519153030262844</v>
+        <v>0.01313487352474</v>
       </c>
       <c r="D64">
-        <v>7.427900824381137</v>
+        <v>2.036724331884532</v>
       </c>
       <c r="E64">
         <v>0.1</v>
@@ -5581,10 +5631,10 @@
         <v>19</v>
       </c>
       <c r="C65">
-        <v>0.01873165248549219</v>
+        <v>0.01250706384113274</v>
       </c>
       <c r="D65">
-        <v>1.53470288796984</v>
+        <v>1.008051163653587</v>
       </c>
       <c r="E65">
         <v>0.1</v>
@@ -5606,10 +5656,10 @@
         <v>19</v>
       </c>
       <c r="C66">
-        <v>0.33355081427996</v>
+        <v>0.1159266259009151</v>
       </c>
       <c r="D66">
-        <v>23.64141085202756</v>
+        <v>7.101367263664967</v>
       </c>
       <c r="E66">
         <v>0.1</v>
@@ -5631,10 +5681,10 @@
         <v>19</v>
       </c>
       <c r="C67">
-        <v>0.03719535047187129</v>
+        <v>0.01457647275051106</v>
       </c>
       <c r="D67">
-        <v>3.28859318960846</v>
+        <v>1.199147535918197</v>
       </c>
       <c r="E67">
         <v>0.1</v>
@@ -5656,10 +5706,10 @@
         <v>19</v>
       </c>
       <c r="C68">
-        <v>0.05424706194467643</v>
+        <v>0.02662108829568309</v>
       </c>
       <c r="D68">
-        <v>4.358281198492319</v>
+        <v>0.7917510712128288</v>
       </c>
       <c r="E68">
         <v>0.1</v>
@@ -5681,10 +5731,10 @@
         <v>19</v>
       </c>
       <c r="C69">
-        <v>0.3739424871388164</v>
+        <v>0.07535817382526168</v>
       </c>
       <c r="D69">
-        <v>40.85481160715398</v>
+        <v>1.252554808371452</v>
       </c>
       <c r="E69">
         <v>0.01753285434133717</v>
@@ -5706,10 +5756,10 @@
         <v>19</v>
       </c>
       <c r="C70">
-        <v>0.1967218442032425</v>
+        <v>0.1893426552783737</v>
       </c>
       <c r="D70">
-        <v>18.95776665985264</v>
+        <v>1.486823810667049</v>
       </c>
       <c r="E70">
         <v>0.05111474066019061</v>
@@ -5731,10 +5781,10 @@
         <v>19</v>
       </c>
       <c r="C71">
-        <v>0.6643153475194157</v>
+        <v>0.2331405673745992</v>
       </c>
       <c r="D71">
-        <v>47.18107931378437</v>
+        <v>0.7605649103151095</v>
       </c>
       <c r="E71">
         <v>0.1</v>
